--- a/tests/test1/d10/N, 0.1.xlsx
+++ b/tests/test1/d10/N, 0.1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -532,13 +532,13 @@
         <v>359.8235947654032</v>
       </c>
       <c r="F2" t="n">
-        <v>10.15058841270996</v>
+        <v>10.15058841270697</v>
       </c>
       <c r="G2" t="n">
-        <v>98.68982412013808</v>
+        <v>98.689824120136</v>
       </c>
       <c r="H2" t="n">
-        <v>11.90576634565411</v>
+        <v>11.90576634564957</v>
       </c>
       <c r="I2" t="n">
         <v>70.56128143157282</v>
@@ -547,16 +547,16 @@
         <v>15.80711097780685</v>
       </c>
       <c r="K2" t="n">
-        <v>70.59667822370031</v>
+        <v>70.59667822369958</v>
       </c>
       <c r="L2" t="n">
-        <v>16.1811528133433</v>
+        <v>16.18115281333775</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01171854039587178</v>
+        <v>0.01171854039588332</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1205277362855759</v>
+        <v>0.120527736283885</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0003130000000055588</v>
+        <v>0.0002414000000001693</v>
       </c>
     </row>
     <row r="3">
@@ -584,13 +584,13 @@
         <v>359.8375654636337</v>
       </c>
       <c r="F3" t="n">
-        <v>9.999288605186107</v>
+        <v>9.999288605188436</v>
       </c>
       <c r="G3" t="n">
-        <v>74.86666823192377</v>
+        <v>74.86666823192665</v>
       </c>
       <c r="H3" t="n">
-        <v>11.77179663883791</v>
+        <v>11.77179663884121</v>
       </c>
       <c r="I3" t="n">
         <v>53.17592866838513</v>
@@ -599,16 +599,16 @@
         <v>18.32782196423818</v>
       </c>
       <c r="K3" t="n">
-        <v>53.16246735665285</v>
+        <v>53.16246735665365</v>
       </c>
       <c r="L3" t="n">
-        <v>18.46515493399075</v>
+        <v>18.46515493399556</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01201025768233238</v>
+        <v>0.01201025768232122</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04824754135841398</v>
+        <v>0.04824754135928899</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.000369699999993145</v>
+        <v>0.0001987000000003292</v>
       </c>
     </row>
     <row r="4">
@@ -636,13 +636,13 @@
         <v>0.04167578474055147</v>
       </c>
       <c r="F4" t="n">
-        <v>9.99479780764962</v>
+        <v>9.994797807649475</v>
       </c>
       <c r="G4" t="n">
-        <v>79.07595551619298</v>
+        <v>79.07595551619482</v>
       </c>
       <c r="H4" t="n">
-        <v>3.268140136501797</v>
+        <v>3.268140136501593</v>
       </c>
       <c r="I4" t="n">
         <v>31.7678424560353</v>
@@ -651,16 +651,16 @@
         <v>9.618122158119826</v>
       </c>
       <c r="K4" t="n">
-        <v>31.76328907510263</v>
+        <v>31.76328907510253</v>
       </c>
       <c r="L4" t="n">
-        <v>9.552280849196116</v>
+        <v>9.552280849195734</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01063030810475557</v>
+        <v>0.01063030810475612</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05991668221467467</v>
+        <v>0.05991668221496936</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0003022000000072467</v>
+        <v>0.000215999999999994</v>
       </c>
     </row>
     <row r="5">
@@ -688,13 +688,13 @@
         <v>359.8211371526569</v>
       </c>
       <c r="F5" t="n">
-        <v>10.11778950271757</v>
+        <v>10.11778950271613</v>
       </c>
       <c r="G5" t="n">
-        <v>98.99085046646805</v>
+        <v>98.99085046646687</v>
       </c>
       <c r="H5" t="n">
-        <v>11.77157796900496</v>
+        <v>11.77157796900284</v>
       </c>
       <c r="I5" t="n">
         <v>70.66253786388728</v>
@@ -703,16 +703,16 @@
         <v>15.67687823027242</v>
       </c>
       <c r="K5" t="n">
-        <v>70.66968590451452</v>
+        <v>70.66968590451413</v>
       </c>
       <c r="L5" t="n">
-        <v>15.99277987984078</v>
+        <v>15.99277987983821</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01350335552190452</v>
+        <v>0.01350335552191254</v>
       </c>
       <c r="N5" t="n">
-        <v>0.09872513231152832</v>
+        <v>0.09872513231072406</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0002889000000010356</v>
+        <v>0.0002075999999995304</v>
       </c>
     </row>
     <row r="6">
@@ -740,13 +740,13 @@
         <v>359.9949438292857</v>
       </c>
       <c r="F6" t="n">
-        <v>9.998551388107753</v>
+        <v>9.998551388109815</v>
       </c>
       <c r="G6" t="n">
-        <v>174.0614812728728</v>
+        <v>174.0614812728707</v>
       </c>
       <c r="H6" t="n">
-        <v>9.564225309418363</v>
+        <v>9.564225309420936</v>
       </c>
       <c r="I6" t="n">
         <v>149.7044734839228</v>
@@ -755,16 +755,16 @@
         <v>4.673171010711503</v>
       </c>
       <c r="K6" t="n">
-        <v>149.6985230952398</v>
+        <v>149.6985230952382</v>
       </c>
       <c r="L6" t="n">
-        <v>4.671497791641519</v>
+        <v>4.671497791642721</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00942767653326133</v>
+        <v>0.009427676533252816</v>
       </c>
       <c r="N6" t="n">
-        <v>0.002851007743903514</v>
+        <v>0.002851007743273151</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.000279399999996599</v>
+        <v>0.0002577999999999747</v>
       </c>
     </row>
     <row r="7">
@@ -792,13 +792,13 @@
         <v>359.9558772513115</v>
       </c>
       <c r="F7" t="n">
-        <v>9.987482879615603</v>
+        <v>9.987482879616131</v>
       </c>
       <c r="G7" t="n">
-        <v>39.93622848534631</v>
+        <v>39.93622848534707</v>
       </c>
       <c r="H7" t="n">
-        <v>13.48522303360194</v>
+        <v>13.48522303360262</v>
       </c>
       <c r="I7" t="n">
         <v>30.28257116656484</v>
@@ -807,16 +807,16 @@
         <v>22.87529985576693</v>
       </c>
       <c r="K7" t="n">
-        <v>30.28443276541241</v>
+        <v>30.2844327654126</v>
       </c>
       <c r="L7" t="n">
-        <v>22.90477903522903</v>
+        <v>22.90477903523024</v>
       </c>
       <c r="M7" t="n">
-        <v>0.009685963909488759</v>
+        <v>0.009685963909487822</v>
       </c>
       <c r="N7" t="n">
-        <v>0.009949756962833636</v>
+        <v>0.009949756963079825</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0003163000000085958</v>
+        <v>0.0002497999999988565</v>
       </c>
     </row>
     <row r="8">
@@ -844,13 +844,13 @@
         <v>0.03117836734874744</v>
       </c>
       <c r="F8" t="n">
-        <v>9.908299215467675</v>
+        <v>9.908299215466723</v>
       </c>
       <c r="G8" t="n">
-        <v>160.9410589097723</v>
+        <v>160.9410589097737</v>
       </c>
       <c r="H8" t="n">
-        <v>6.887436920357384</v>
+        <v>6.887436920356413</v>
       </c>
       <c r="I8" t="n">
         <v>97.61618025069936</v>
@@ -859,16 +859,16 @@
         <v>3.973338297383755</v>
       </c>
       <c r="K8" t="n">
-        <v>97.64270009949352</v>
+        <v>97.64270009949342</v>
       </c>
       <c r="L8" t="n">
-        <v>3.90940812811922</v>
+        <v>3.909408128118639</v>
       </c>
       <c r="M8" t="n">
-        <v>0.009525306057193024</v>
+        <v>0.009525306057194585</v>
       </c>
       <c r="N8" t="n">
-        <v>0.07358233733257043</v>
+        <v>0.07358233733316884</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0003068999999982225</v>
+        <v>0.0001927000000012669</v>
       </c>
     </row>
     <row r="9">
@@ -896,13 +896,13 @@
         <v>359.83094742962</v>
       </c>
       <c r="F9" t="n">
-        <v>9.773886910217746</v>
+        <v>9.773886910217826</v>
       </c>
       <c r="G9" t="n">
-        <v>13.61733887498528</v>
+        <v>13.61733887498538</v>
       </c>
       <c r="H9" t="n">
-        <v>12.6294817499243</v>
+        <v>12.62948174992423</v>
       </c>
       <c r="I9" t="n">
         <v>12.15137765332865</v>
@@ -911,16 +911,16 @@
         <v>22.28974380606835</v>
       </c>
       <c r="K9" t="n">
-        <v>12.14406575189269</v>
+        <v>12.14406575189272</v>
       </c>
       <c r="L9" t="n">
         <v>22.38784033977888</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01209210092182761</v>
+        <v>0.01209210092182775</v>
       </c>
       <c r="N9" t="n">
-        <v>0.06682500463991145</v>
+        <v>0.06682500463988991</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0002952999999905614</v>
+        <v>0.0001952999999996763</v>
       </c>
     </row>
     <row r="10">
@@ -948,13 +948,13 @@
         <v>359.990879528338</v>
       </c>
       <c r="F10" t="n">
-        <v>9.957031302645726</v>
+        <v>9.95703130264757</v>
       </c>
       <c r="G10" t="n">
-        <v>157.2185978239482</v>
+        <v>157.2185978239477</v>
       </c>
       <c r="H10" t="n">
-        <v>14.54871510089543</v>
+        <v>14.54871510089868</v>
       </c>
       <c r="I10" t="n">
         <v>137.8318815863209</v>
@@ -963,16 +963,16 @@
         <v>11.86534188679525</v>
       </c>
       <c r="K10" t="n">
-        <v>137.8367861870457</v>
+        <v>137.8367861870452</v>
       </c>
       <c r="L10" t="n">
-        <v>11.81248489618085</v>
+        <v>11.81248489618321</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0110290575807556</v>
+        <v>0.01102905758074746</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02129625725954167</v>
+        <v>0.02129625725851355</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0003039000000057968</v>
+        <v>0.0001879999999996329</v>
       </c>
     </row>
     <row r="11">
@@ -1000,13 +1000,13 @@
         <v>359.9998891445288</v>
       </c>
       <c r="F11" t="n">
-        <v>10.01964442061281</v>
+        <v>10.01964442061286</v>
       </c>
       <c r="G11" t="n">
-        <v>1.845374715773122</v>
+        <v>1.845374715773274</v>
       </c>
       <c r="H11" t="n">
-        <v>8.962598383365508</v>
+        <v>8.962598383365671</v>
       </c>
       <c r="I11" t="n">
         <v>4.782971926670573</v>
@@ -1015,16 +1015,16 @@
         <v>18.26849864379155</v>
       </c>
       <c r="K11" t="n">
-        <v>4.776302153035611</v>
+        <v>4.776302153035675</v>
       </c>
       <c r="L11" t="n">
-        <v>18.21607954957446</v>
+        <v>18.21607954957471</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0104869487598797</v>
+        <v>0.01048694875987954</v>
       </c>
       <c r="N11" t="n">
-        <v>0.02359554868665938</v>
+        <v>0.02359554868657397</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0002907000000078597</v>
+        <v>0.0002855000000003827</v>
       </c>
     </row>
     <row r="12">
@@ -1052,13 +1052,13 @@
         <v>359.866841349587</v>
       </c>
       <c r="F12" t="n">
-        <v>10.03698212924891</v>
+        <v>10.03698212925006</v>
       </c>
       <c r="G12" t="n">
-        <v>137.1157955940842</v>
+        <v>137.115795594081</v>
       </c>
       <c r="H12" t="n">
-        <v>3.27643378980183</v>
+        <v>3.27643378980255</v>
       </c>
       <c r="I12" t="n">
         <v>40.03006317522596</v>
@@ -1067,16 +1067,16 @@
         <v>5.809547132347129</v>
       </c>
       <c r="K12" t="n">
-        <v>40.0996654589878</v>
+        <v>40.09966545898919</v>
       </c>
       <c r="L12" t="n">
-        <v>5.934830059102145</v>
+        <v>5.934830059103129</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01076341679409292</v>
+        <v>0.01076341679409618</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1174815137035566</v>
+        <v>0.1174815137048202</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0002913000000006605</v>
+        <v>0.0001987000000003292</v>
       </c>
     </row>
     <row r="13">
@@ -1104,13 +1104,13 @@
         <v>359.8250545258695</v>
       </c>
       <c r="F13" t="n">
-        <v>9.867697488898035</v>
+        <v>9.867697488897718</v>
       </c>
       <c r="G13" t="n">
-        <v>31.22882748122696</v>
+        <v>31.22882748122538</v>
       </c>
       <c r="H13" t="n">
-        <v>3.482337697881007</v>
+        <v>3.482337697880897</v>
       </c>
       <c r="I13" t="n">
         <v>16.97012183948808</v>
@@ -1119,16 +1119,16 @@
         <v>11.14346017967418</v>
       </c>
       <c r="K13" t="n">
-        <v>16.98762739568181</v>
+        <v>16.98762739568154</v>
       </c>
       <c r="L13" t="n">
-        <v>11.31844806525138</v>
+        <v>11.31844806525097</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01306925575165269</v>
+        <v>0.01306925575165419</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2532627187595392</v>
+        <v>0.2532627187593695</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0003906999999969685</v>
+        <v>0.0002003000000012634</v>
       </c>
     </row>
     <row r="14">
@@ -1156,13 +1156,13 @@
         <v>359.952701416851</v>
       </c>
       <c r="F14" t="n">
-        <v>9.982061633654135</v>
+        <v>9.982061633654029</v>
       </c>
       <c r="G14" t="n">
-        <v>27.70608399947752</v>
+        <v>27.70608399947726</v>
       </c>
       <c r="H14" t="n">
-        <v>11.98890833347133</v>
+        <v>11.98890833347141</v>
       </c>
       <c r="I14" t="n">
         <v>21.32604566380087</v>
@@ -1171,16 +1171,16 @@
         <v>21.47093508922593</v>
       </c>
       <c r="K14" t="n">
-        <v>21.33295583278012</v>
+        <v>21.33295583278008</v>
       </c>
       <c r="L14" t="n">
-        <v>21.58159390382373</v>
+        <v>21.58159390382372</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0103181578638373</v>
+        <v>0.0103181578638372</v>
       </c>
       <c r="N14" t="n">
-        <v>0.03418982782298538</v>
+        <v>0.03418982782299234</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0002938999999884118</v>
+        <v>0.0001926999999994905</v>
       </c>
     </row>
     <row r="15">
@@ -1208,13 +1208,13 @@
         <v>0.07123906620506157</v>
       </c>
       <c r="F15" t="n">
-        <v>9.905926326446595</v>
+        <v>9.905926326447387</v>
       </c>
       <c r="G15" t="n">
-        <v>140.3871953768155</v>
+        <v>140.3871953768147</v>
       </c>
       <c r="H15" t="n">
-        <v>5.750750674831536</v>
+        <v>5.750750674832275</v>
       </c>
       <c r="I15" t="n">
         <v>70.55697937574554</v>
@@ -1223,16 +1223,16 @@
         <v>6.028251123835125</v>
       </c>
       <c r="K15" t="n">
-        <v>70.53333479626494</v>
+        <v>70.53333479626544</v>
       </c>
       <c r="L15" t="n">
-        <v>5.921243352093837</v>
+        <v>5.921243352094502</v>
       </c>
       <c r="M15" t="n">
-        <v>0.009276888580789736</v>
+        <v>0.009276888580787162</v>
       </c>
       <c r="N15" t="n">
-        <v>0.08813728325254497</v>
+        <v>0.0881372832518964</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0002847999999886497</v>
+        <v>0.0001816999999988411</v>
       </c>
     </row>
     <row r="16">
@@ -1260,13 +1260,13 @@
         <v>359.8448660888747</v>
       </c>
       <c r="F16" t="n">
-        <v>10.05084284942237</v>
+        <v>10.05084284942101</v>
       </c>
       <c r="G16" t="n">
-        <v>92.33466138141078</v>
+        <v>92.33466138140966</v>
       </c>
       <c r="H16" t="n">
-        <v>12.46817327162929</v>
+        <v>12.46817327162717</v>
       </c>
       <c r="I16" t="n">
         <v>67.01959217131787</v>
@@ -1275,16 +1275,16 @@
         <v>17.25965100693092</v>
       </c>
       <c r="K16" t="n">
-        <v>67.01798343241052</v>
+        <v>67.01798343241016</v>
       </c>
       <c r="L16" t="n">
-        <v>17.48006672150555</v>
+        <v>17.48006672150285</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01273539567264804</v>
+        <v>0.01273539567265587</v>
       </c>
       <c r="N16" t="n">
-        <v>0.06479136305304421</v>
+        <v>0.06479136305246354</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0002856999999920617</v>
+        <v>0.000227999999999895</v>
       </c>
     </row>
     <row r="17">
@@ -1312,13 +1312,13 @@
         <v>0.0312328481543536</v>
       </c>
       <c r="F17" t="n">
-        <v>9.951265876894775</v>
+        <v>9.951265876893851</v>
       </c>
       <c r="G17" t="n">
-        <v>153.0450630855262</v>
+        <v>153.0450630855279</v>
       </c>
       <c r="H17" t="n">
-        <v>5.105557195372634</v>
+        <v>5.10555719537187</v>
       </c>
       <c r="I17" t="n">
         <v>64.66687573308144</v>
@@ -1327,16 +1327,16 @@
         <v>4.419793767587765</v>
       </c>
       <c r="K17" t="n">
-        <v>64.63814587851382</v>
+        <v>64.63814587851283</v>
       </c>
       <c r="L17" t="n">
-        <v>4.374660716106534</v>
+        <v>4.374660716105936</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01013812602529687</v>
+        <v>0.01013812602530123</v>
       </c>
       <c r="N17" t="n">
-        <v>0.05065835701530581</v>
+        <v>0.05065835701619142</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0003066000000018221</v>
+        <v>0.0001871999999991658</v>
       </c>
     </row>
     <row r="18">
@@ -1364,13 +1364,13 @@
         <v>359.9872051278866</v>
       </c>
       <c r="F18" t="n">
-        <v>9.941364066780052</v>
+        <v>9.941364066779993</v>
       </c>
       <c r="G18" t="n">
-        <v>40.11056654946469</v>
+        <v>40.11056654946476</v>
       </c>
       <c r="H18" t="n">
-        <v>9.218605842395185</v>
+        <v>9.218605842394991</v>
       </c>
       <c r="I18" t="n">
         <v>27.73953336539376</v>
@@ -1379,16 +1379,16 @@
         <v>17.9514684390679</v>
       </c>
       <c r="K18" t="n">
-        <v>27.72198779270282</v>
+        <v>27.7219877927028</v>
       </c>
       <c r="L18" t="n">
-        <v>17.83238500562451</v>
+        <v>17.83238500562422</v>
       </c>
       <c r="M18" t="n">
-        <v>0.00856676415204961</v>
+        <v>0.008566764152049877</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0334814858519293</v>
+        <v>0.03348148585201283</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0002944000000013602</v>
+        <v>0.0001910000000009404</v>
       </c>
     </row>
     <row r="19">
@@ -1416,13 +1416,13 @@
         <v>359.9723734109978</v>
       </c>
       <c r="F19" t="n">
-        <v>9.967282566112015</v>
+        <v>9.967282566113502</v>
       </c>
       <c r="G19" t="n">
-        <v>52.93000256342432</v>
+        <v>52.93000256342603</v>
       </c>
       <c r="H19" t="n">
-        <v>9.36791451345788</v>
+        <v>9.367914513459931</v>
       </c>
       <c r="I19" t="n">
         <v>35.67338189562808</v>
@@ -1431,16 +1431,16 @@
         <v>17.4087621630154</v>
       </c>
       <c r="K19" t="n">
-        <v>35.65671097546686</v>
+        <v>35.65671097546747</v>
       </c>
       <c r="L19" t="n">
-        <v>17.38678595829874</v>
+        <v>17.38678595830221</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01033678168377352</v>
+        <v>0.01033678168377055</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0092472359018892</v>
+        <v>0.009247235901906547</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0003003000000063594</v>
+        <v>0.0001874999999991189</v>
       </c>
     </row>
     <row r="20">
@@ -1468,13 +1468,13 @@
         <v>359.9920571556194</v>
       </c>
       <c r="F20" t="n">
-        <v>9.962674336322841</v>
+        <v>9.962674336322175</v>
       </c>
       <c r="G20" t="n">
         <v>117.0589287335032</v>
       </c>
       <c r="H20" t="n">
-        <v>9.020144006372401</v>
+        <v>9.020144006371524</v>
       </c>
       <c r="I20" t="n">
         <v>77.36702495454749</v>
@@ -1483,16 +1483,16 @@
         <v>11.12685015605182</v>
       </c>
       <c r="K20" t="n">
-        <v>77.36791999004343</v>
+        <v>77.3679199900433</v>
       </c>
       <c r="L20" t="n">
-        <v>11.07653582958936</v>
+        <v>11.07653582958841</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01030540714512886</v>
+        <v>0.01030540714513029</v>
       </c>
       <c r="N20" t="n">
-        <v>0.02046262898236325</v>
+        <v>0.02046262898271944</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0003185000000058835</v>
+        <v>0.0001815000000000566</v>
       </c>
     </row>
     <row r="21">
@@ -1520,13 +1520,13 @@
         <v>359.9778996737318</v>
       </c>
       <c r="F21" t="n">
-        <v>9.938967913836859</v>
+        <v>9.938967913836771</v>
       </c>
       <c r="G21" t="n">
-        <v>17.49314434803668</v>
+        <v>17.4931443480366</v>
       </c>
       <c r="H21" t="n">
-        <v>12.13989634279882</v>
+        <v>12.1398963427984</v>
       </c>
       <c r="I21" t="n">
         <v>14.65846372863805</v>
@@ -1535,16 +1535,16 @@
         <v>21.98288036784542</v>
       </c>
       <c r="K21" t="n">
-        <v>14.64816773222604</v>
+        <v>14.64816773222598</v>
       </c>
       <c r="L21" t="n">
-        <v>21.92953618957009</v>
+        <v>21.92953618956951</v>
       </c>
       <c r="M21" t="n">
-        <v>0.009752443166246325</v>
+        <v>0.009752443166247182</v>
       </c>
       <c r="N21" t="n">
-        <v>0.009200395086638197</v>
+        <v>0.009200395086604628</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0002960000000058471</v>
+        <v>0.0002494999999989034</v>
       </c>
     </row>
     <row r="22">
@@ -1572,13 +1572,13 @@
         <v>359.9116106887382</v>
       </c>
       <c r="F22" t="n">
-        <v>9.991043797876099</v>
+        <v>9.991043797886723</v>
       </c>
       <c r="G22" t="n">
-        <v>105.7679398740978</v>
+        <v>105.7679398741042</v>
       </c>
       <c r="H22" t="n">
-        <v>13.80030168001266</v>
+        <v>13.80030168003096</v>
       </c>
       <c r="I22" t="n">
         <v>80.46804950751098</v>
@@ -1587,16 +1587,16 @@
         <v>17.3070565800005</v>
       </c>
       <c r="K22" t="n">
-        <v>80.45348409906111</v>
+        <v>80.45348409906298</v>
       </c>
       <c r="L22" t="n">
-        <v>17.33226974010896</v>
+        <v>17.33226974012978</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01044046793697586</v>
+        <v>0.0104404679369313</v>
       </c>
       <c r="N22" t="n">
-        <v>0.01349430165720247</v>
+        <v>0.01349430166190146</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.000292600000008747</v>
+        <v>0.0001897999999993516</v>
       </c>
     </row>
     <row r="23">
@@ -1624,13 +1624,13 @@
         <v>0.005196424950550942</v>
       </c>
       <c r="F23" t="n">
-        <v>10.03771825534393</v>
+        <v>10.03771825534403</v>
       </c>
       <c r="G23" t="n">
-        <v>8.845360607776668</v>
+        <v>8.845360607776845</v>
       </c>
       <c r="H23" t="n">
-        <v>6.455805265036326</v>
+        <v>6.455805265036281</v>
       </c>
       <c r="I23" t="n">
         <v>8.886792062587165</v>
@@ -1639,16 +1639,16 @@
         <v>15.23897862130467</v>
       </c>
       <c r="K23" t="n">
-        <v>8.906429863776765</v>
+        <v>8.906429863776804</v>
       </c>
       <c r="L23" t="n">
-        <v>15.26018676772868</v>
+        <v>15.26018676772871</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01018024542127247</v>
+        <v>0.01018024542127237</v>
       </c>
       <c r="N23" t="n">
-        <v>0.01432205982653894</v>
+        <v>0.01432205982657861</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0005477999999925487</v>
+        <v>0.0002345999999988635</v>
       </c>
     </row>
     <row r="24">
@@ -1676,13 +1676,13 @@
         <v>0.009194991986513107</v>
       </c>
       <c r="F24" t="n">
-        <v>10.01935850311387</v>
+        <v>10.0193585031135</v>
       </c>
       <c r="G24" t="n">
-        <v>37.6229912038969</v>
+        <v>37.62299120389623</v>
       </c>
       <c r="H24" t="n">
-        <v>8.742588951693511</v>
+        <v>8.74258895169312</v>
       </c>
       <c r="I24" t="n">
         <v>25.73745290239647</v>
@@ -1691,16 +1691,16 @@
         <v>17.47349577797121</v>
       </c>
       <c r="K24" t="n">
-        <v>25.74326176115239</v>
+        <v>25.74326176115221</v>
       </c>
       <c r="L24" t="n">
-        <v>17.4437231472843</v>
+        <v>17.44372314728354</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01104111617905214</v>
+        <v>0.01104111617905268</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01749569029056817</v>
+        <v>0.01749569029069295</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0003197999999997592</v>
+        <v>0.0001885000000001469</v>
       </c>
     </row>
     <row r="25">
@@ -1728,13 +1728,13 @@
         <v>359.9333011943647</v>
       </c>
       <c r="F25" t="n">
-        <v>9.954893136975747</v>
+        <v>9.954893136976096</v>
       </c>
       <c r="G25" t="n">
-        <v>93.0395015466484</v>
+        <v>93.03950154664859</v>
       </c>
       <c r="H25" t="n">
-        <v>14.32428084985204</v>
+        <v>14.32428084985268</v>
       </c>
       <c r="I25" t="n">
         <v>70.67112797219256</v>
@@ -1743,16 +1743,16 @@
         <v>19.47923218856673</v>
       </c>
       <c r="K25" t="n">
-        <v>70.67168203511912</v>
+        <v>70.67168203511916</v>
       </c>
       <c r="L25" t="n">
-        <v>19.41828454516795</v>
+        <v>19.41828454516875</v>
       </c>
       <c r="M25" t="n">
-        <v>0.009629102032977765</v>
+        <v>0.009629102032976334</v>
       </c>
       <c r="N25" t="n">
-        <v>0.01404128623168155</v>
+        <v>0.0140412862315114</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.000394399999990469</v>
+        <v>0.000181399999998888</v>
       </c>
     </row>
     <row r="26">
@@ -1780,13 +1780,13 @@
         <v>359.8670787827351</v>
       </c>
       <c r="F26" t="n">
-        <v>9.983559924314001</v>
+        <v>9.98355992431582</v>
       </c>
       <c r="G26" t="n">
-        <v>172.6499116784505</v>
+        <v>172.649911678449</v>
       </c>
       <c r="H26" t="n">
-        <v>11.38419331021105</v>
+        <v>11.38419331021362</v>
       </c>
       <c r="I26" t="n">
         <v>154.9934456744326</v>
@@ -1795,16 +1795,16 @@
         <v>6.82101990562933</v>
       </c>
       <c r="K26" t="n">
-        <v>154.9053591058541</v>
+        <v>154.9053591058529</v>
       </c>
       <c r="L26" t="n">
-        <v>6.825917212500347</v>
+        <v>6.825917212501726</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01797331771280442</v>
+        <v>0.01797331771281241</v>
       </c>
       <c r="N26" t="n">
-        <v>0.02923175828942545</v>
+        <v>0.02923175828954151</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0003019999999906986</v>
+        <v>0.000237600000000171</v>
       </c>
     </row>
     <row r="27">
@@ -1832,13 +1832,13 @@
         <v>359.9771726910334</v>
       </c>
       <c r="F27" t="n">
-        <v>10.00275872929871</v>
+        <v>10.00275872928332</v>
       </c>
       <c r="G27" t="n">
-        <v>156.5858027089213</v>
+        <v>156.5858027089294</v>
       </c>
       <c r="H27" t="n">
-        <v>9.994310277782075</v>
+        <v>9.99431027776164</v>
       </c>
       <c r="I27" t="n">
         <v>121.4009088187373</v>
@@ -1847,16 +1847,16 @@
         <v>6.942709063967283</v>
       </c>
       <c r="K27" t="n">
-        <v>121.3869582656267</v>
+        <v>121.3869582656298</v>
       </c>
       <c r="L27" t="n">
-        <v>6.94912981520746</v>
+        <v>6.949129815194473</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01100497860810054</v>
+        <v>0.01100497860812466</v>
       </c>
       <c r="N27" t="n">
-        <v>0.007691551464632943</v>
+        <v>0.007691551455424435</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0003049999999973352</v>
+        <v>0.000196200000001312</v>
       </c>
     </row>
     <row r="28">
@@ -1884,13 +1884,13 @@
         <v>359.980400678834</v>
       </c>
       <c r="F28" t="n">
-        <v>9.98394035189175</v>
+        <v>9.983940351891702</v>
       </c>
       <c r="G28" t="n">
-        <v>55.4117632053508</v>
+        <v>55.41176320535128</v>
       </c>
       <c r="H28" t="n">
-        <v>9.223991419857841</v>
+        <v>9.223991419857549</v>
       </c>
       <c r="I28" t="n">
         <v>36.9783150738388</v>
@@ -1899,16 +1899,16 @@
         <v>17.11232764246076</v>
       </c>
       <c r="K28" t="n">
-        <v>36.98031554050076</v>
+        <v>36.98031554050078</v>
       </c>
       <c r="L28" t="n">
-        <v>17.08854290930594</v>
+        <v>17.08854290930553</v>
       </c>
       <c r="M28" t="n">
-        <v>0.009703072951184234</v>
+        <v>0.009703072951185072</v>
       </c>
       <c r="N28" t="n">
-        <v>0.005587325769543275</v>
+        <v>0.005587325769649525</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0002964999999903739</v>
+        <v>0.000195200000000284</v>
       </c>
     </row>
     <row r="29">
@@ -1936,13 +1936,13 @@
         <v>359.8714394584768</v>
       </c>
       <c r="F29" t="n">
-        <v>10.0020985916964</v>
+        <v>10.00209859169696</v>
       </c>
       <c r="G29" t="n">
-        <v>76.52067274341059</v>
+        <v>76.52067274341111</v>
       </c>
       <c r="H29" t="n">
-        <v>12.8768388628226</v>
+        <v>12.87683886282352</v>
       </c>
       <c r="I29" t="n">
         <v>55.80674075854401</v>
@@ -1951,16 +1951,16 @@
         <v>19.44632462639266</v>
       </c>
       <c r="K29" t="n">
-        <v>55.81137330978459</v>
+        <v>55.81137330978476</v>
       </c>
       <c r="L29" t="n">
-        <v>19.55358648322168</v>
+        <v>19.55358648322298</v>
       </c>
       <c r="M29" t="n">
-        <v>0.01129559268325073</v>
+        <v>0.01129559268324813</v>
       </c>
       <c r="N29" t="n">
-        <v>0.03300901467523822</v>
+        <v>0.03300901467556053</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0003138000000006969</v>
+        <v>0.0001915999999990703</v>
       </c>
     </row>
     <row r="30">
@@ -1988,13 +1988,13 @@
         <v>359.955366762213</v>
       </c>
       <c r="F30" t="n">
-        <v>10.05390584500128</v>
+        <v>10.05390584499696</v>
       </c>
       <c r="G30" t="n">
-        <v>131.1429894513941</v>
+        <v>131.1429894513936</v>
       </c>
       <c r="H30" t="n">
-        <v>9.821626402018151</v>
+        <v>9.8216264020124</v>
       </c>
       <c r="I30" t="n">
         <v>91.80924814573706</v>
@@ -2003,16 +2003,16 @@
         <v>9.961999912823932</v>
       </c>
       <c r="K30" t="n">
-        <v>91.80826188474849</v>
+        <v>91.80826188474772</v>
       </c>
       <c r="L30" t="n">
-        <v>10.04326954378503</v>
+        <v>10.0432695437799</v>
       </c>
       <c r="M30" t="n">
-        <v>0.009740028245251678</v>
+        <v>0.009740028245259822</v>
       </c>
       <c r="N30" t="n">
-        <v>0.03810872540794749</v>
+        <v>0.03810872540582429</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0004254999999915299</v>
+        <v>0.0001806000000001973</v>
       </c>
     </row>
     <row r="31">
@@ -2040,13 +2040,13 @@
         <v>0.04174821263045001</v>
       </c>
       <c r="F31" t="n">
-        <v>9.910503029239354</v>
+        <v>9.910503029233391</v>
       </c>
       <c r="G31" t="n">
-        <v>155.7416666862479</v>
+        <v>155.7416666862562</v>
       </c>
       <c r="H31" t="n">
-        <v>6.327961675027787</v>
+        <v>6.327961675022006</v>
       </c>
       <c r="I31" t="n">
         <v>85.08185965409687</v>
@@ -2055,16 +2055,16 @@
         <v>4.383667298314077</v>
       </c>
       <c r="K31" t="n">
-        <v>85.06490596014548</v>
+        <v>85.06490596014231</v>
       </c>
       <c r="L31" t="n">
-        <v>4.313489130159808</v>
+        <v>4.313489130155951</v>
       </c>
       <c r="M31" t="n">
-        <v>0.01035943966128459</v>
+        <v>0.01035943966130926</v>
       </c>
       <c r="N31" t="n">
-        <v>0.07294911463055886</v>
+        <v>0.07294911463528142</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0003023000000013099</v>
+        <v>0.0002384000000006381</v>
       </c>
     </row>
     <row r="32">
@@ -2092,13 +2092,13 @@
         <v>0.1264052664776349</v>
       </c>
       <c r="F32" t="n">
-        <v>9.808555987433747</v>
+        <v>9.808555987435049</v>
       </c>
       <c r="G32" t="n">
-        <v>116.2129760859431</v>
+        <v>116.2129760859437</v>
       </c>
       <c r="H32" t="n">
-        <v>7.308477813239378</v>
+        <v>7.308477813240826</v>
       </c>
       <c r="I32" t="n">
         <v>69.94009040741105</v>
@@ -2107,16 +2107,16 @@
         <v>9.94082687493656</v>
       </c>
       <c r="K32" t="n">
-        <v>69.88496879667542</v>
+        <v>69.88496879667599</v>
       </c>
       <c r="L32" t="n">
-        <v>9.648869852808764</v>
+        <v>9.648869852810348</v>
       </c>
       <c r="M32" t="n">
-        <v>0.01108333145450124</v>
+        <v>0.01108333145449886</v>
       </c>
       <c r="N32" t="n">
-        <v>0.155451340695567</v>
+        <v>0.1554513406946946</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0003028000000000475</v>
+        <v>0.000199299999998459</v>
       </c>
     </row>
     <row r="33">
@@ -2144,13 +2144,13 @@
         <v>0.04147572142515835</v>
       </c>
       <c r="F33" t="n">
-        <v>9.920803142515091</v>
+        <v>9.920803142516668</v>
       </c>
       <c r="G33" t="n">
-        <v>51.38548024976355</v>
+        <v>51.38548024976543</v>
       </c>
       <c r="H33" t="n">
-        <v>14.34238443592293</v>
+        <v>14.34238443592547</v>
       </c>
       <c r="I33" t="n">
         <v>39.0616009844012</v>
@@ -2159,16 +2159,16 @@
         <v>23.45979414801152</v>
       </c>
       <c r="K33" t="n">
-        <v>39.02437816148726</v>
+        <v>39.02437816148777</v>
       </c>
       <c r="L33" t="n">
-        <v>23.22803398631449</v>
+        <v>23.22803398631856</v>
       </c>
       <c r="M33" t="n">
-        <v>0.01034866931195169</v>
+        <v>0.01034866931194835</v>
       </c>
       <c r="N33" t="n">
-        <v>0.05508484782766765</v>
+        <v>0.05508484782675938</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0003217999999947097</v>
+        <v>0.0002025000000003274</v>
       </c>
     </row>
     <row r="34">
@@ -2196,13 +2196,13 @@
         <v>0.03488944509893788</v>
       </c>
       <c r="F34" t="n">
-        <v>9.856849574239263</v>
+        <v>9.856849574226247</v>
       </c>
       <c r="G34" t="n">
-        <v>154.8337247921991</v>
+        <v>154.8337247922117</v>
       </c>
       <c r="H34" t="n">
-        <v>7.312272598143329</v>
+        <v>7.3122725981292</v>
       </c>
       <c r="I34" t="n">
         <v>98.12939238316436</v>
@@ -2211,16 +2211,16 @@
         <v>5.067646835573846</v>
       </c>
       <c r="K34" t="n">
-        <v>98.13235948050807</v>
+        <v>98.13235948050553</v>
       </c>
       <c r="L34" t="n">
-        <v>4.957734841356214</v>
+        <v>4.957734841347119</v>
       </c>
       <c r="M34" t="n">
-        <v>0.01037525752426591</v>
+        <v>0.01037525752429511</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0963482328325545</v>
+        <v>0.0963482328399568</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0003026999999917734</v>
+        <v>0.0001848999999989331</v>
       </c>
     </row>
     <row r="35">
@@ -2248,13 +2248,13 @@
         <v>0.03188535051081121</v>
       </c>
       <c r="F35" t="n">
-        <v>9.97090187721456</v>
+        <v>9.970901877214464</v>
       </c>
       <c r="G35" t="n">
-        <v>44.76039877968596</v>
+        <v>44.76039877968548</v>
       </c>
       <c r="H35" t="n">
-        <v>8.30822436148333</v>
+        <v>8.308224361483379</v>
       </c>
       <c r="I35" t="n">
         <v>29.60621371940404</v>
@@ -2263,16 +2263,16 @@
         <v>16.7283342947574</v>
       </c>
       <c r="K35" t="n">
-        <v>29.59018246613048</v>
+        <v>29.59018246613041</v>
       </c>
       <c r="L35" t="n">
-        <v>16.59850341706009</v>
+        <v>16.59850341706008</v>
       </c>
       <c r="M35" t="n">
-        <v>0.009652966645716389</v>
+        <v>0.009652966645716325</v>
       </c>
       <c r="N35" t="n">
-        <v>0.04488478822224452</v>
+        <v>0.04488478822223931</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0002997999999934109</v>
+        <v>0.0002037000000001399</v>
       </c>
     </row>
     <row r="36">
@@ -2300,13 +2300,13 @@
         <v>359.9756164899372</v>
       </c>
       <c r="F36" t="n">
-        <v>9.982718088743153</v>
+        <v>9.982718088743129</v>
       </c>
       <c r="G36" t="n">
-        <v>6.967126173536326</v>
+        <v>6.967126173536251</v>
       </c>
       <c r="H36" t="n">
-        <v>12.35484818874476</v>
+        <v>12.35484818874454</v>
       </c>
       <c r="I36" t="n">
         <v>7.633544320503938</v>
@@ -2315,16 +2315,16 @@
         <v>22.30604591386155</v>
       </c>
       <c r="K36" t="n">
-        <v>7.646172197443795</v>
+        <v>7.64617219744377</v>
       </c>
       <c r="L36" t="n">
-        <v>22.28080406382392</v>
+        <v>22.28080406382363</v>
       </c>
       <c r="M36" t="n">
-        <v>0.009614114348885828</v>
+        <v>0.009614114348886045</v>
       </c>
       <c r="N36" t="n">
-        <v>0.006979327992012312</v>
+        <v>0.006979327992069836</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0003214999999983092</v>
+        <v>0.0002391999999993288</v>
       </c>
     </row>
     <row r="37">
@@ -2352,13 +2352,13 @@
         <v>0.1889736710087823</v>
       </c>
       <c r="F37" t="n">
-        <v>9.903268282584332</v>
+        <v>9.903268282586605</v>
       </c>
       <c r="G37" t="n">
-        <v>83.02214480579168</v>
+        <v>83.02214480579468</v>
       </c>
       <c r="H37" t="n">
-        <v>6.466068838016193</v>
+        <v>6.466068838018461</v>
       </c>
       <c r="I37" t="n">
         <v>47.28302978168723</v>
@@ -2367,16 +2367,16 @@
         <v>12.44155687331505</v>
       </c>
       <c r="K37" t="n">
-        <v>47.25741519307515</v>
+        <v>47.25741519307634</v>
       </c>
       <c r="L37" t="n">
-        <v>12.12527593152164</v>
+        <v>12.12527593152516</v>
       </c>
       <c r="M37" t="n">
-        <v>0.01349070804871561</v>
+        <v>0.01349070804871553</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1504369539491697</v>
+        <v>0.1504369539476282</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0005172000000044363</v>
+        <v>0.0002157000000000409</v>
       </c>
     </row>
     <row r="38">
@@ -2404,13 +2404,13 @@
         <v>359.9323586734246</v>
       </c>
       <c r="F38" t="n">
-        <v>10.05453014349333</v>
+        <v>10.05453014348934</v>
       </c>
       <c r="G38" t="n">
-        <v>131.0253188962961</v>
+        <v>131.0253188962957</v>
       </c>
       <c r="H38" t="n">
-        <v>10.31616968938934</v>
+        <v>10.31616968938382</v>
       </c>
       <c r="I38" t="n">
         <v>93.75460165970797</v>
@@ -2419,16 +2419,16 @@
         <v>10.42956719317792</v>
       </c>
       <c r="K38" t="n">
-        <v>93.74739847001715</v>
+        <v>93.74739847001663</v>
       </c>
       <c r="L38" t="n">
-        <v>10.52034245133069</v>
+        <v>10.52034245132572</v>
       </c>
       <c r="M38" t="n">
-        <v>0.01169765648396106</v>
+        <v>0.01169765648397077</v>
       </c>
       <c r="N38" t="n">
-        <v>0.04263657244191986</v>
+        <v>0.04263657243991283</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.001480900000004226</v>
+        <v>0.0002330999999990979</v>
       </c>
     </row>
     <row r="39">
@@ -2456,13 +2456,13 @@
         <v>0.005446361233744566</v>
       </c>
       <c r="F39" t="n">
-        <v>9.952175786658094</v>
+        <v>9.952175786662094</v>
       </c>
       <c r="G39" t="n">
-        <v>170.0729499835939</v>
+        <v>170.0729499835894</v>
       </c>
       <c r="H39" t="n">
-        <v>8.513047895962956</v>
+        <v>8.513047895967633</v>
       </c>
       <c r="I39" t="n">
         <v>132.8794796020886</v>
@@ -2471,16 +2471,16 @@
         <v>4.031761962137695</v>
       </c>
       <c r="K39" t="n">
-        <v>132.9191828324791</v>
+        <v>132.9191828324765</v>
       </c>
       <c r="L39" t="n">
-        <v>4.004451774936663</v>
+        <v>4.004451774938899</v>
       </c>
       <c r="M39" t="n">
-        <v>0.009738802988101671</v>
+        <v>0.00973880298808946</v>
       </c>
       <c r="N39" t="n">
-        <v>0.03918005062663985</v>
+        <v>0.03918005062359124</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0008698999999978696</v>
+        <v>0.0002244000000004576</v>
       </c>
     </row>
     <row r="40">
@@ -2508,13 +2508,13 @@
         <v>359.8991294351883</v>
       </c>
       <c r="F40" t="n">
-        <v>10.01493010226536</v>
+        <v>10.0149301022676</v>
       </c>
       <c r="G40" t="n">
-        <v>69.2120849041752</v>
+        <v>69.21208490417742</v>
       </c>
       <c r="H40" t="n">
-        <v>13.41526325942506</v>
+        <v>13.41526325942876</v>
       </c>
       <c r="I40" t="n">
         <v>51.01422188754402</v>
@@ -2523,16 +2523,16 @@
         <v>20.73148308181667</v>
       </c>
       <c r="K40" t="n">
-        <v>51.01932851393578</v>
+        <v>51.01932851393642</v>
       </c>
       <c r="L40" t="n">
-        <v>20.84386168109113</v>
+        <v>20.84386168109657</v>
       </c>
       <c r="M40" t="n">
-        <v>0.01110191473685847</v>
+        <v>0.01110191473685137</v>
       </c>
       <c r="N40" t="n">
-        <v>0.03003065201662411</v>
+        <v>0.03003065201786381</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0007690999999994119</v>
+        <v>0.0003204999999990576</v>
       </c>
     </row>
     <row r="41">
@@ -2560,13 +2560,13 @@
         <v>359.8595160433978</v>
       </c>
       <c r="F41" t="n">
-        <v>10.04837703180542</v>
+        <v>10.04837703179357</v>
       </c>
       <c r="G41" t="n">
-        <v>98.30613401215707</v>
+        <v>98.30613401214836</v>
       </c>
       <c r="H41" t="n">
-        <v>12.73438911678343</v>
+        <v>12.73438911676446</v>
       </c>
       <c r="I41" t="n">
         <v>72.19761816275663</v>
@@ -2575,16 +2575,16 @@
         <v>16.90630795593209</v>
       </c>
       <c r="K41" t="n">
-        <v>72.19449012102744</v>
+        <v>72.19449012102471</v>
       </c>
       <c r="L41" t="n">
-        <v>17.08516765080959</v>
+        <v>17.08516765078657</v>
       </c>
       <c r="M41" t="n">
-        <v>0.01205688360353484</v>
+        <v>0.01205688360359682</v>
       </c>
       <c r="N41" t="n">
-        <v>0.05349263241438791</v>
+        <v>0.05349263240924691</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0005136000000049989</v>
+        <v>0.0002356999999992837</v>
       </c>
     </row>
     <row r="42">
@@ -2612,13 +2612,13 @@
         <v>0.06075476972112828</v>
       </c>
       <c r="F42" t="n">
-        <v>9.990687422016508</v>
+        <v>9.990687422016315</v>
       </c>
       <c r="G42" t="n">
-        <v>73.76328263101509</v>
+        <v>73.76328263101352</v>
       </c>
       <c r="H42" t="n">
-        <v>3.612198944536978</v>
+        <v>3.612198944536921</v>
       </c>
       <c r="I42" t="n">
         <v>31.92625942098924</v>
@@ -2627,16 +2627,16 @@
         <v>10.18120494273455</v>
       </c>
       <c r="K42" t="n">
-        <v>31.89177348197219</v>
+        <v>31.89177348197201</v>
       </c>
       <c r="L42" t="n">
-        <v>10.1128755668461</v>
+        <v>10.11287556684596</v>
       </c>
       <c r="M42" t="n">
-        <v>0.01010016674719414</v>
+        <v>0.01010016674719439</v>
       </c>
       <c r="N42" t="n">
-        <v>0.06490605390339402</v>
+        <v>0.06490605390345873</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0007252999999991516</v>
+        <v>0.0002028000000002805</v>
       </c>
     </row>
     <row r="43">
@@ -2664,13 +2664,13 @@
         <v>0.0270712323067284</v>
       </c>
       <c r="F43" t="n">
-        <v>9.985458457921784</v>
+        <v>9.985458457921681</v>
       </c>
       <c r="G43" t="n">
-        <v>45.33343978562382</v>
+        <v>45.33343978562201</v>
       </c>
       <c r="H43" t="n">
-        <v>3.499851604696006</v>
+        <v>3.499851604696151</v>
       </c>
       <c r="I43" t="n">
         <v>21.98281729864149</v>
@@ -2679,16 +2679,16 @@
         <v>11.20442922515501</v>
       </c>
       <c r="K43" t="n">
-        <v>21.96170044657363</v>
+        <v>21.96170044657355</v>
       </c>
       <c r="L43" t="n">
-        <v>11.12907653735506</v>
+        <v>11.12907653735518</v>
       </c>
       <c r="M43" t="n">
-        <v>0.01002632677405054</v>
+        <v>0.01002632677405047</v>
       </c>
       <c r="N43" t="n">
-        <v>0.05816836624662143</v>
+        <v>0.05816836624647771</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.001284999999995762</v>
+        <v>0.0002019999999998134</v>
       </c>
     </row>
     <row r="44">
@@ -2716,13 +2716,13 @@
         <v>359.9503285846989</v>
       </c>
       <c r="F44" t="n">
-        <v>9.976954072510203</v>
+        <v>9.976954072511679</v>
       </c>
       <c r="G44" t="n">
-        <v>67.38611235168469</v>
+        <v>67.38611235168609</v>
       </c>
       <c r="H44" t="n">
-        <v>14.39886135611336</v>
+        <v>14.39886135611596</v>
       </c>
       <c r="I44" t="n">
         <v>50.70287428680181</v>
@@ -2731,16 +2731,16 @@
         <v>22.14193003827787</v>
       </c>
       <c r="K44" t="n">
-        <v>50.70293233216523</v>
+        <v>50.70293233216564</v>
       </c>
       <c r="L44" t="n">
-        <v>22.11217385712039</v>
+        <v>22.1121738571242</v>
       </c>
       <c r="M44" t="n">
-        <v>0.009864779470916787</v>
+        <v>0.009864779470910814</v>
       </c>
       <c r="N44" t="n">
-        <v>0.004716860389270747</v>
+        <v>0.004716860388604883</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0003992000000039297</v>
+        <v>0.0002206000000004593</v>
       </c>
     </row>
     <row r="45">
@@ -2768,13 +2768,13 @@
         <v>359.9742600074655</v>
       </c>
       <c r="F45" t="n">
-        <v>9.944594582957624</v>
+        <v>9.944594582958024</v>
       </c>
       <c r="G45" t="n">
-        <v>20.61364277849077</v>
+        <v>20.61364277849138</v>
       </c>
       <c r="H45" t="n">
-        <v>10.33189240952107</v>
+        <v>10.33189240952165</v>
       </c>
       <c r="I45" t="n">
         <v>16.3064939917049</v>
@@ -2783,16 +2783,16 @@
         <v>19.74929820405307</v>
       </c>
       <c r="K45" t="n">
-        <v>16.28512702829636</v>
+        <v>16.28512702829657</v>
       </c>
       <c r="L45" t="n">
-        <v>19.72407898563323</v>
+        <v>19.72407898563429</v>
       </c>
       <c r="M45" t="n">
-        <v>0.009839370859413809</v>
+        <v>0.009839370859412744</v>
       </c>
       <c r="N45" t="n">
-        <v>0.01547504055726728</v>
+        <v>0.01547504055724501</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.000583399999996459</v>
+        <v>0.0003155000000010233</v>
       </c>
     </row>
     <row r="46">
@@ -2820,13 +2820,13 @@
         <v>0.07506147172559083</v>
       </c>
       <c r="F46" t="n">
-        <v>9.960420455317061</v>
+        <v>9.96042045531612</v>
       </c>
       <c r="G46" t="n">
-        <v>150.9888303005168</v>
+        <v>150.9888303005195</v>
       </c>
       <c r="H46" t="n">
-        <v>4.230134530150322</v>
+        <v>4.230134530149657</v>
       </c>
       <c r="I46" t="n">
         <v>51.49320715697708</v>
@@ -2835,16 +2835,16 @@
         <v>4.733318900759217</v>
       </c>
       <c r="K46" t="n">
-        <v>51.45013222126966</v>
+        <v>51.45013222126852</v>
       </c>
       <c r="L46" t="n">
-        <v>4.661166870998163</v>
+        <v>4.661166870997469</v>
       </c>
       <c r="M46" t="n">
-        <v>0.01067096523534519</v>
+        <v>0.0106709652353532</v>
       </c>
       <c r="N46" t="n">
-        <v>0.07020559078110139</v>
+        <v>0.07020559078208902</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0003332999999940967</v>
+        <v>0.0002363999999985822</v>
       </c>
     </row>
     <row r="47">
@@ -2872,13 +2872,13 @@
         <v>359.997362522715</v>
       </c>
       <c r="F47" t="n">
-        <v>9.994904929060029</v>
+        <v>9.994904929055753</v>
       </c>
       <c r="G47" t="n">
-        <v>178.0266052758708</v>
+        <v>178.0266052758755</v>
       </c>
       <c r="H47" t="n">
-        <v>9.588788021857528</v>
+        <v>9.588788021852235</v>
       </c>
       <c r="I47" t="n">
         <v>159.1796698056864</v>
@@ -2887,16 +2887,16 @@
         <v>4.410985878453859</v>
       </c>
       <c r="K47" t="n">
-        <v>159.1910359812513</v>
+        <v>159.1910359812559</v>
       </c>
       <c r="L47" t="n">
-        <v>4.408762008651152</v>
+        <v>4.408762008648833</v>
       </c>
       <c r="M47" t="n">
-        <v>0.009448017007490176</v>
+        <v>0.009448017007495261</v>
       </c>
       <c r="N47" t="n">
-        <v>0.005293051889596111</v>
+        <v>0.005293051893126371</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0005155999999999494</v>
+        <v>0.0001846000000007564</v>
       </c>
     </row>
     <row r="48">
@@ -2942,13 +2942,13 @@
         <v>105.4078486190587</v>
       </c>
       <c r="L48" t="n">
-        <v>9.617547602974959</v>
+        <v>9.61754760297497</v>
       </c>
       <c r="M48" t="n">
-        <v>0.01088414968302324</v>
+        <v>0.0108841496830232</v>
       </c>
       <c r="N48" t="n">
-        <v>0.05309128153232328</v>
+        <v>0.05309128153232782</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.000408399999997755</v>
+        <v>0.0001809999999995426</v>
       </c>
     </row>
     <row r="49">
@@ -2976,13 +2976,13 @@
         <v>0.0848009475766186</v>
       </c>
       <c r="F49" t="n">
-        <v>10.03250154455266</v>
+        <v>10.03250154455279</v>
       </c>
       <c r="G49" t="n">
-        <v>20.43733283702319</v>
+        <v>20.43733283702337</v>
       </c>
       <c r="H49" t="n">
-        <v>14.47362444937841</v>
+        <v>14.47362444937847</v>
       </c>
       <c r="I49" t="n">
         <v>17.03401812828383</v>
@@ -2991,16 +2991,16 @@
         <v>25.00422823336124</v>
       </c>
       <c r="K49" t="n">
-        <v>17.01525206965192</v>
+        <v>17.01525206965196</v>
       </c>
       <c r="L49" t="n">
-        <v>24.77573164726205</v>
+        <v>24.77573164726224</v>
       </c>
       <c r="M49" t="n">
-        <v>0.01032773719684716</v>
+        <v>0.01032773719684715</v>
       </c>
       <c r="N49" t="n">
-        <v>0.05761738268291639</v>
+        <v>0.05761738268288439</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0003272999999950343</v>
+        <v>0.0001879000000002407</v>
       </c>
     </row>
     <row r="50">
@@ -3028,13 +3028,13 @@
         <v>0.09936313199284796</v>
       </c>
       <c r="F50" t="n">
-        <v>10.13717186220997</v>
+        <v>10.13717186220989</v>
       </c>
       <c r="G50" t="n">
-        <v>3.012216256797769</v>
+        <v>3.012216256797718</v>
       </c>
       <c r="H50" t="n">
-        <v>13.30677654723629</v>
+        <v>13.30677654723631</v>
       </c>
       <c r="I50" t="n">
         <v>4.979091423193565</v>
@@ -3043,16 +3043,16 @@
         <v>23.88762442334499</v>
       </c>
       <c r="K50" t="n">
-        <v>4.937133785585579</v>
+        <v>4.937133785585554</v>
       </c>
       <c r="L50" t="n">
-        <v>23.55425638760483</v>
+        <v>23.55425638760477</v>
       </c>
       <c r="M50" t="n">
-        <v>0.01108787890998954</v>
+        <v>0.01108787890998956</v>
       </c>
       <c r="N50" t="n">
-        <v>0.1087071225666824</v>
+        <v>0.1087071225666915</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0003257000000047583</v>
+        <v>0.00025229999999965</v>
       </c>
     </row>
     <row r="51">
@@ -3080,13 +3080,13 @@
         <v>0.1043159078206541</v>
       </c>
       <c r="F51" t="n">
-        <v>9.960760633657232</v>
+        <v>9.960760633657234</v>
       </c>
       <c r="G51" t="n">
-        <v>54.37684678427796</v>
+        <v>54.37684678427737</v>
       </c>
       <c r="H51" t="n">
-        <v>5.817563157043475</v>
+        <v>5.817563157043608</v>
       </c>
       <c r="I51" t="n">
         <v>31.07252442683621</v>
@@ -3095,16 +3095,16 @@
         <v>13.5120365339658</v>
       </c>
       <c r="K51" t="n">
-        <v>31.02630774713945</v>
+        <v>31.02630774713944</v>
       </c>
       <c r="L51" t="n">
-        <v>13.31556837309856</v>
+        <v>13.31556837309874</v>
       </c>
       <c r="M51" t="n">
-        <v>0.01006479019933772</v>
+        <v>0.01006479019933761</v>
       </c>
       <c r="N51" t="n">
-        <v>0.1025560146254001</v>
+        <v>0.1025560146253155</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.000336099999998396</v>
+        <v>0.0001923999999995374</v>
       </c>
     </row>
     <row r="52">
@@ -3132,13 +3132,13 @@
         <v>0.1560352108683698</v>
       </c>
       <c r="F52" t="n">
-        <v>9.905990123875325</v>
+        <v>9.905990123875647</v>
       </c>
       <c r="G52" t="n">
-        <v>89.59047033974782</v>
+        <v>89.59047033974872</v>
       </c>
       <c r="H52" t="n">
-        <v>5.557545964265398</v>
+        <v>5.557545964265646</v>
       </c>
       <c r="I52" t="n">
         <v>47.03792036458195</v>
@@ -3147,16 +3147,16 @@
         <v>11.00547523311644</v>
       </c>
       <c r="K52" t="n">
-        <v>46.99298820479451</v>
+        <v>46.99298820479474</v>
       </c>
       <c r="L52" t="n">
-        <v>10.75705782037092</v>
+        <v>10.75705782037129</v>
       </c>
       <c r="M52" t="n">
-        <v>0.0119560932099675</v>
+        <v>0.01195609320996712</v>
       </c>
       <c r="N52" t="n">
-        <v>0.1411068050338345</v>
+        <v>0.1411068050336361</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0003291000000018585</v>
+        <v>0.0001854999999988394</v>
       </c>
     </row>
     <row r="53">
@@ -3184,13 +3184,13 @@
         <v>0.02905031733486384</v>
       </c>
       <c r="F53" t="n">
-        <v>9.969237089621821</v>
+        <v>9.969237089622824</v>
       </c>
       <c r="G53" t="n">
-        <v>121.7952571035256</v>
+        <v>121.7952571035253</v>
       </c>
       <c r="H53" t="n">
-        <v>3.509118333255674</v>
+        <v>3.509118333256365</v>
       </c>
       <c r="I53" t="n">
         <v>42.84508415968962</v>
@@ -3199,16 +3199,16 @@
         <v>7.034854823508725</v>
       </c>
       <c r="K53" t="n">
-        <v>42.80138110095417</v>
+        <v>42.80138110095523</v>
       </c>
       <c r="L53" t="n">
-        <v>6.997539769693337</v>
+        <v>6.997539769694259</v>
       </c>
       <c r="M53" t="n">
-        <v>0.00983923185808082</v>
+        <v>0.009839231858077932</v>
       </c>
       <c r="N53" t="n">
-        <v>0.04324520951968836</v>
+        <v>0.04324520951871004</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0003312999999991462</v>
+        <v>0.0001870000000003813</v>
       </c>
     </row>
     <row r="54">
@@ -3236,13 +3236,13 @@
         <v>359.9480524159385</v>
       </c>
       <c r="F54" t="n">
-        <v>10.02842257906192</v>
+        <v>10.02842257906256</v>
       </c>
       <c r="G54" t="n">
-        <v>147.456307591513</v>
+        <v>147.4563075915119</v>
       </c>
       <c r="H54" t="n">
-        <v>3.324725251665087</v>
+        <v>3.324725251665497</v>
       </c>
       <c r="I54" t="n">
         <v>39.20823517402567</v>
@@ -3251,16 +3251,16 @@
         <v>5.169813417634993</v>
       </c>
       <c r="K54" t="n">
-        <v>39.24606366123742</v>
+        <v>39.24606366123833</v>
       </c>
       <c r="L54" t="n">
-        <v>5.228110873388138</v>
+        <v>5.228110873388551</v>
       </c>
       <c r="M54" t="n">
-        <v>0.009391118494601227</v>
+        <v>0.009391118494601192</v>
       </c>
       <c r="N54" t="n">
-        <v>0.05437324164431234</v>
+        <v>0.05437324164500913</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0005064000000061242</v>
+        <v>0.0001867000000004282</v>
       </c>
     </row>
     <row r="55">
@@ -3288,13 +3288,13 @@
         <v>359.979413513315</v>
       </c>
       <c r="F55" t="n">
-        <v>9.958291036657325</v>
+        <v>9.958291036668149</v>
       </c>
       <c r="G55" t="n">
-        <v>152.3844246465999</v>
+        <v>152.384424646595</v>
       </c>
       <c r="H55" t="n">
-        <v>9.683622814384153</v>
+        <v>9.683622814398346</v>
       </c>
       <c r="I55" t="n">
         <v>114.2699214848488</v>
@@ -3303,16 +3303,16 @@
         <v>7.220398177179498</v>
       </c>
       <c r="K55" t="n">
-        <v>114.2684506099572</v>
+        <v>114.2684506099561</v>
       </c>
       <c r="L55" t="n">
-        <v>7.188594184952581</v>
+        <v>7.188594184962138</v>
       </c>
       <c r="M55" t="n">
-        <v>0.01134030724296342</v>
+        <v>0.0113403072429406</v>
       </c>
       <c r="N55" t="n">
-        <v>0.02101417776689909</v>
+        <v>0.02101417776142518</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0003291999999959216</v>
+        <v>0.0002265999999995216</v>
       </c>
     </row>
     <row r="56">
@@ -3340,13 +3340,13 @@
         <v>0.185221074461286</v>
       </c>
       <c r="F56" t="n">
-        <v>9.887119835230132</v>
+        <v>9.887119835230521</v>
       </c>
       <c r="G56" t="n">
-        <v>75.97523878635037</v>
+        <v>75.97523878635175</v>
       </c>
       <c r="H56" t="n">
-        <v>7.096426562048908</v>
+        <v>7.096426562049173</v>
       </c>
       <c r="I56" t="n">
         <v>45.4456541921149</v>
@@ -3355,16 +3355,16 @@
         <v>13.64739445873363</v>
       </c>
       <c r="K56" t="n">
-        <v>45.39582092425398</v>
+        <v>45.39582092425425</v>
       </c>
       <c r="L56" t="n">
-        <v>13.29300379515676</v>
+        <v>13.2930037951572</v>
       </c>
       <c r="M56" t="n">
-        <v>0.01182946652611276</v>
+        <v>0.01182946652611291</v>
       </c>
       <c r="N56" t="n">
-        <v>0.1534555158755373</v>
+        <v>0.1534555158753635</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0003195999999974219</v>
+        <v>0.0002423999999994209</v>
       </c>
     </row>
     <row r="57">
@@ -3392,13 +3392,13 @@
         <v>0.1623731114634006</v>
       </c>
       <c r="F57" t="n">
-        <v>10.10350599993005</v>
+        <v>10.10350599992989</v>
       </c>
       <c r="G57" t="n">
-        <v>16.79605919141186</v>
+        <v>16.79605919141168</v>
       </c>
       <c r="H57" t="n">
-        <v>14.27792334883611</v>
+        <v>14.27792334883591</v>
       </c>
       <c r="I57" t="n">
         <v>14.44966940927695</v>
@@ -3407,16 +3407,16 @@
         <v>25.01968713371055</v>
       </c>
       <c r="K57" t="n">
-        <v>14.43657667437866</v>
+        <v>14.43657667437861</v>
       </c>
       <c r="L57" t="n">
-        <v>24.66861598647195</v>
+        <v>24.66861598647156</v>
       </c>
       <c r="M57" t="n">
-        <v>0.01162206876951874</v>
+        <v>0.01162206876951862</v>
       </c>
       <c r="N57" t="n">
-        <v>0.09270859979641255</v>
+        <v>0.09270859979648052</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0003390999999908217</v>
+        <v>0.0001894000000000062</v>
       </c>
     </row>
     <row r="58">
@@ -3444,13 +3444,13 @@
         <v>0.1037643175502605</v>
       </c>
       <c r="F58" t="n">
-        <v>9.759421012249174</v>
+        <v>9.759421012252741</v>
       </c>
       <c r="G58" t="n">
-        <v>177.8989797301199</v>
+        <v>177.8989797301126</v>
       </c>
       <c r="H58" t="n">
-        <v>6.763887657858233</v>
+        <v>6.763887657861732</v>
       </c>
       <c r="I58" t="n">
         <v>122.3917356254008</v>
@@ -3459,16 +3459,16 @@
         <v>1.88002910171164</v>
       </c>
       <c r="K58" t="n">
-        <v>123.0905776798419</v>
+        <v>123.0905776798367</v>
       </c>
       <c r="L58" t="n">
-        <v>1.77331439599187</v>
+        <v>1.773314395993201</v>
       </c>
       <c r="M58" t="n">
-        <v>0.02137214139738634</v>
+        <v>0.02137214139722306</v>
       </c>
       <c r="N58" t="n">
-        <v>0.3725781153359977</v>
+        <v>0.3725781153320918</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.001396600000006742</v>
+        <v>0.0001849000000007095</v>
       </c>
     </row>
     <row r="59">
@@ -3496,13 +3496,13 @@
         <v>0.0131052157346955</v>
       </c>
       <c r="F59" t="n">
-        <v>9.96896827342184</v>
+        <v>9.968968273421876</v>
       </c>
       <c r="G59" t="n">
-        <v>15.60944803637669</v>
+        <v>15.60944803637679</v>
       </c>
       <c r="H59" t="n">
-        <v>5.767107067273906</v>
+        <v>5.767107067273896</v>
       </c>
       <c r="I59" t="n">
         <v>12.23519148406908</v>
@@ -3511,16 +3511,16 @@
         <v>14.37002887945796</v>
       </c>
       <c r="K59" t="n">
-        <v>12.21610676105609</v>
+        <v>12.2161067610561</v>
       </c>
       <c r="L59" t="n">
-        <v>14.34266131595355</v>
+        <v>14.34266131595357</v>
       </c>
       <c r="M59" t="n">
-        <v>0.01096751688890129</v>
+        <v>0.01096751688890127</v>
       </c>
       <c r="N59" t="n">
-        <v>0.01138169698132581</v>
+        <v>0.01138169698131626</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0003470999999990454</v>
+        <v>0.0002462999999988114</v>
       </c>
     </row>
     <row r="60">
@@ -3548,13 +3548,13 @@
         <v>0.07601861461744777</v>
       </c>
       <c r="F60" t="n">
-        <v>9.90803765330641</v>
+        <v>9.908037653306499</v>
       </c>
       <c r="G60" t="n">
-        <v>65.66363809614386</v>
+        <v>65.66363809614384</v>
       </c>
       <c r="H60" t="n">
-        <v>8.258622132772874</v>
+        <v>8.258622132773016</v>
       </c>
       <c r="I60" t="n">
         <v>41.96631688030001</v>
@@ -3563,16 +3563,16 @@
         <v>15.51473424919647</v>
       </c>
       <c r="K60" t="n">
-        <v>41.91826366541352</v>
+        <v>41.91826366541355</v>
       </c>
       <c r="L60" t="n">
-        <v>15.28782250085092</v>
+        <v>15.28782250085114</v>
       </c>
       <c r="M60" t="n">
-        <v>0.009814255044332993</v>
+        <v>0.009814255044332943</v>
       </c>
       <c r="N60" t="n">
-        <v>0.08407723532814795</v>
+        <v>0.08407723532807476</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003095000000001846</v>
+        <v>0.0001982999999992074</v>
       </c>
     </row>
     <row r="61">
@@ -3600,13 +3600,13 @@
         <v>0.1669283521394677</v>
       </c>
       <c r="F61" t="n">
-        <v>9.829777514841771</v>
+        <v>9.8297775148411</v>
       </c>
       <c r="G61" t="n">
-        <v>167.8276153027235</v>
+        <v>167.8276153027255</v>
       </c>
       <c r="H61" t="n">
-        <v>4.792475621097269</v>
+        <v>4.792475621096772</v>
       </c>
       <c r="I61" t="n">
         <v>56.76408976169788</v>
@@ -3615,16 +3615,16 @@
         <v>3.059300117780022</v>
       </c>
       <c r="K61" t="n">
-        <v>56.57565171850936</v>
+        <v>56.57565171850798</v>
       </c>
       <c r="L61" t="n">
-        <v>2.88960696878786</v>
+        <v>2.88960696878752</v>
       </c>
       <c r="M61" t="n">
-        <v>0.01412227662520887</v>
+        <v>0.01412227662523183</v>
       </c>
       <c r="N61" t="n">
-        <v>0.2291737033781082</v>
+        <v>0.2291737033789454</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0005627000000032467</v>
+        <v>0.0001984999999997683</v>
       </c>
     </row>
     <row r="62">
@@ -3652,13 +3652,13 @@
         <v>0.0921770993213077</v>
       </c>
       <c r="F62" t="n">
-        <v>10.0087899932976</v>
+        <v>10.00878999329769</v>
       </c>
       <c r="G62" t="n">
-        <v>54.60502004139169</v>
+        <v>54.60502004139229</v>
       </c>
       <c r="H62" t="n">
-        <v>5.132814286644146</v>
+        <v>5.132814286644152</v>
       </c>
       <c r="I62" t="n">
         <v>29.53509225686502</v>
@@ -3667,16 +3667,16 @@
         <v>12.72106643331113</v>
       </c>
       <c r="K62" t="n">
-        <v>29.52647303377129</v>
+        <v>29.52647303377135</v>
       </c>
       <c r="L62" t="n">
-        <v>12.59583052831782</v>
+        <v>12.59583052831788</v>
       </c>
       <c r="M62" t="n">
-        <v>0.01163883486750877</v>
+        <v>0.01163883486750869</v>
       </c>
       <c r="N62" t="n">
-        <v>0.08246097836849453</v>
+        <v>0.08246097836848479</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0003317000000038206</v>
+        <v>0.0001886999999989314</v>
       </c>
     </row>
     <row r="63">
@@ -3704,13 +3704,13 @@
         <v>0.04314955515597899</v>
       </c>
       <c r="F63" t="n">
-        <v>9.953539947684538</v>
+        <v>9.953539947684334</v>
       </c>
       <c r="G63" t="n">
         <v>148.7042472802698</v>
       </c>
       <c r="H63" t="n">
-        <v>5.134420876780577</v>
+        <v>5.134420876780404</v>
       </c>
       <c r="I63" t="n">
         <v>64.68552660313826</v>
@@ -3719,16 +3719,16 @@
         <v>4.894765047516295</v>
       </c>
       <c r="K63" t="n">
-        <v>64.67155656474192</v>
+        <v>64.67155656474165</v>
       </c>
       <c r="L63" t="n">
-        <v>4.844141603965611</v>
+        <v>4.844141603965494</v>
       </c>
       <c r="M63" t="n">
-        <v>0.01052556094085907</v>
+        <v>0.01052556094086022</v>
       </c>
       <c r="N63" t="n">
-        <v>0.04840025829920777</v>
+        <v>0.04840025829940382</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0003506999999984828</v>
+        <v>0.0002255000000008778</v>
       </c>
     </row>
     <row r="64">
@@ -3756,13 +3756,13 @@
         <v>0.001232542630374539</v>
       </c>
       <c r="F64" t="n">
-        <v>10.02254127682344</v>
+        <v>10.02254127682317</v>
       </c>
       <c r="G64" t="n">
-        <v>6.08693890851133</v>
+        <v>6.086938908510949</v>
       </c>
       <c r="H64" t="n">
-        <v>8.837426229158046</v>
+        <v>8.837426229157995</v>
       </c>
       <c r="I64" t="n">
         <v>7.285415246674767</v>
@@ -3771,16 +3771,16 @@
         <v>18.11323190547886</v>
       </c>
       <c r="K64" t="n">
-        <v>7.286095614516671</v>
+        <v>7.286095614516556</v>
       </c>
       <c r="L64" t="n">
-        <v>18.09743355733951</v>
+        <v>18.09743355733918</v>
       </c>
       <c r="M64" t="n">
-        <v>0.008954106370022259</v>
+        <v>0.008954106370022485</v>
       </c>
       <c r="N64" t="n">
-        <v>0.01088254871973713</v>
+        <v>0.01088254871974335</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0003568999999998823</v>
+        <v>0.0002365999999991431</v>
       </c>
     </row>
     <row r="65">
@@ -3808,13 +3808,13 @@
         <v>0.2138978653518085</v>
       </c>
       <c r="F65" t="n">
-        <v>9.806591824950489</v>
+        <v>9.806591824950312</v>
       </c>
       <c r="G65" t="n">
-        <v>100.1446387004947</v>
+        <v>100.1446387004949</v>
       </c>
       <c r="H65" t="n">
-        <v>7.421399803346882</v>
+        <v>7.421399803346646</v>
       </c>
       <c r="I65" t="n">
         <v>60.6583617383578</v>
@@ -3823,16 +3823,16 @@
         <v>11.86528034063046</v>
       </c>
       <c r="K65" t="n">
-        <v>60.5922219727613</v>
+        <v>60.59222197276129</v>
       </c>
       <c r="L65" t="n">
-        <v>11.44871420925389</v>
+        <v>11.44871420925356</v>
       </c>
       <c r="M65" t="n">
-        <v>0.01331687113048301</v>
+        <v>0.01331687113048329</v>
       </c>
       <c r="N65" t="n">
-        <v>0.1934654086662106</v>
+        <v>0.1934654086663379</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0004129999999946676</v>
+        <v>0.0001851000000012704</v>
       </c>
     </row>
     <row r="66">
@@ -3860,13 +3860,13 @@
         <v>359.8899677060768</v>
       </c>
       <c r="F66" t="n">
-        <v>10.00785777489228</v>
+        <v>10.00785777489123</v>
       </c>
       <c r="G66" t="n">
-        <v>68.07152096818402</v>
+        <v>68.07152096818241</v>
       </c>
       <c r="H66" t="n">
-        <v>9.919618774181364</v>
+        <v>9.919618774180085</v>
       </c>
       <c r="I66" t="n">
         <v>45.8459076388655</v>
@@ -3875,16 +3875,16 @@
         <v>16.86218162216168</v>
       </c>
       <c r="K66" t="n">
-        <v>45.85047329607134</v>
+        <v>45.85047329607089</v>
       </c>
       <c r="L66" t="n">
-        <v>16.99393575857128</v>
+        <v>16.99393575856925</v>
       </c>
       <c r="M66" t="n">
-        <v>0.0122578822122036</v>
+        <v>0.01225788221220865</v>
       </c>
       <c r="N66" t="n">
-        <v>0.04749805727132937</v>
+        <v>0.04749805727072957</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.000499599999997713</v>
+        <v>0.0001855000000006157</v>
       </c>
     </row>
     <row r="67">
@@ -3912,13 +3912,13 @@
         <v>0.08336648231326493</v>
       </c>
       <c r="F67" t="n">
-        <v>10.00951263852176</v>
+        <v>10.00951263852128</v>
       </c>
       <c r="G67" t="n">
-        <v>39.73235813580402</v>
+        <v>39.73235813580155</v>
       </c>
       <c r="H67" t="n">
-        <v>3.272296571062374</v>
+        <v>3.272296571062197</v>
       </c>
       <c r="I67" t="n">
         <v>19.57687427078943</v>
@@ -3927,16 +3927,16 @@
         <v>11.16212898988536</v>
       </c>
       <c r="K67" t="n">
-        <v>19.53707355651715</v>
+        <v>19.53707355651678</v>
       </c>
       <c r="L67" t="n">
-        <v>11.04911627691194</v>
+        <v>11.04911627691135</v>
       </c>
       <c r="M67" t="n">
-        <v>0.01041939090204778</v>
+        <v>0.0104193909020485</v>
       </c>
       <c r="N67" t="n">
-        <v>0.1136229290800677</v>
+        <v>0.1136229290803181</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0004663999999934276</v>
+        <v>0.0002982000000013585</v>
       </c>
     </row>
     <row r="68">
@@ -3964,13 +3964,13 @@
         <v>359.8584385635936</v>
       </c>
       <c r="F68" t="n">
-        <v>9.907203554930263</v>
+        <v>9.907203554930428</v>
       </c>
       <c r="G68" t="n">
-        <v>27.35364210128317</v>
+        <v>27.35364210128381</v>
       </c>
       <c r="H68" t="n">
-        <v>4.785256297793622</v>
+        <v>4.785256297793686</v>
       </c>
       <c r="I68" t="n">
         <v>16.96964631110587</v>
@@ -3979,16 +3979,16 @@
         <v>12.83113260813786</v>
       </c>
       <c r="K68" t="n">
-        <v>16.98364707057688</v>
+        <v>16.98364707057701</v>
       </c>
       <c r="L68" t="n">
-        <v>12.956095409131</v>
+        <v>12.95609540913122</v>
       </c>
       <c r="M68" t="n">
-        <v>0.01155878804443514</v>
+        <v>0.01155878804443448</v>
       </c>
       <c r="N68" t="n">
-        <v>0.1283854704221434</v>
+        <v>0.1283854704222264</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0006884999999954289</v>
+        <v>0.000200800000000001</v>
       </c>
     </row>
     <row r="69">
@@ -4016,13 +4016,13 @@
         <v>359.887147784778</v>
       </c>
       <c r="F69" t="n">
-        <v>10.0357973119414</v>
+        <v>10.0357973119402</v>
       </c>
       <c r="G69" t="n">
-        <v>98.12922037435793</v>
+        <v>98.12922037435686</v>
       </c>
       <c r="H69" t="n">
-        <v>13.43780739793993</v>
+        <v>13.437807397938</v>
       </c>
       <c r="I69" t="n">
         <v>73.30159050095429</v>
@@ -4031,16 +4031,16 @@
         <v>17.71985515776622</v>
       </c>
       <c r="K69" t="n">
-        <v>73.28545306218061</v>
+        <v>73.2854530621803</v>
       </c>
       <c r="L69" t="n">
-        <v>17.86899705729697</v>
+        <v>17.86899705729465</v>
       </c>
       <c r="M69" t="n">
-        <v>0.01126411459722204</v>
+        <v>0.01126411459722657</v>
       </c>
       <c r="N69" t="n">
-        <v>0.04587469710169369</v>
+        <v>0.04587469710121921</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0003530000000040445</v>
+        <v>0.000228800000000362</v>
       </c>
     </row>
     <row r="70">
@@ -4068,13 +4068,13 @@
         <v>0.0944476364371679</v>
       </c>
       <c r="F70" t="n">
-        <v>10.00424425595322</v>
+        <v>10.00424425595302</v>
       </c>
       <c r="G70" t="n">
-        <v>47.44078396640496</v>
+        <v>47.44078396640344</v>
       </c>
       <c r="H70" t="n">
-        <v>3.376183386062052</v>
+        <v>3.376183386062034</v>
       </c>
       <c r="I70" t="n">
         <v>22.43075918953557</v>
@@ -4083,16 +4083,16 @@
         <v>11.12306944814092</v>
       </c>
       <c r="K70" t="n">
-        <v>22.38381174369113</v>
+        <v>22.38381174369097</v>
       </c>
       <c r="L70" t="n">
-        <v>10.9533482349905</v>
+        <v>10.95334823499034</v>
       </c>
       <c r="M70" t="n">
-        <v>0.01110258388736758</v>
+        <v>0.01110258388736784</v>
       </c>
       <c r="N70" t="n">
-        <v>0.1583846977728874</v>
+        <v>0.1583846977729219</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0003248999999954094</v>
+        <v>0.0001886999999989314</v>
       </c>
     </row>
     <row r="71">
@@ -4120,31 +4120,31 @@
         <v>359.9084492901451</v>
       </c>
       <c r="F71" t="n">
-        <v>9.92722184040595</v>
+        <v>9.92722184040673</v>
       </c>
       <c r="G71" t="n">
-        <v>53.14997399528518</v>
+        <v>53.14997399528626</v>
       </c>
       <c r="H71" t="n">
-        <v>12.72479802716355</v>
+        <v>12.72479802716465</v>
       </c>
       <c r="I71" t="n">
-        <v>39.09766949772916</v>
+        <v>39.09766949772915</v>
       </c>
       <c r="J71" t="n">
         <v>21.2511977384674</v>
       </c>
       <c r="K71" t="n">
-        <v>39.07907679822236</v>
+        <v>39.07907679822265</v>
       </c>
       <c r="L71" t="n">
-        <v>21.21468377643082</v>
+        <v>21.21468377643264</v>
       </c>
       <c r="M71" t="n">
-        <v>0.0113430906381788</v>
+        <v>0.01134309063817636</v>
       </c>
       <c r="N71" t="n">
-        <v>0.01502828922534386</v>
+        <v>0.01502828922531263</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.001656800000006342</v>
+        <v>0.0001867000000004282</v>
       </c>
     </row>
     <row r="72">
@@ -4172,13 +4172,13 @@
         <v>359.9149002591698</v>
       </c>
       <c r="F72" t="n">
-        <v>9.98928760026944</v>
+        <v>9.989287600268792</v>
       </c>
       <c r="G72" t="n">
-        <v>166.8584753947297</v>
+        <v>166.8584753947301</v>
       </c>
       <c r="H72" t="n">
-        <v>13.46318442951173</v>
+        <v>13.46318442951069</v>
       </c>
       <c r="I72" t="n">
         <v>150.0337683635548</v>
@@ -4187,16 +4187,16 @@
         <v>9.651912212970135</v>
       </c>
       <c r="K72" t="n">
-        <v>149.9885890534729</v>
+        <v>149.9885890534732</v>
       </c>
       <c r="L72" t="n">
-        <v>9.654186967423346</v>
+        <v>9.654186967422682</v>
       </c>
       <c r="M72" t="n">
-        <v>0.01312938008668087</v>
+        <v>0.01312938008668272</v>
       </c>
       <c r="N72" t="n">
-        <v>0.01498903600461965</v>
+        <v>0.01498903600461173</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0003042000000021972</v>
+        <v>0.0001954000000008449</v>
       </c>
     </row>
     <row r="73">
@@ -4224,13 +4224,13 @@
         <v>0.04306031497297426</v>
       </c>
       <c r="F73" t="n">
-        <v>10.00514621574245</v>
+        <v>10.00514621574267</v>
       </c>
       <c r="G73" t="n">
-        <v>33.4916755401586</v>
+        <v>33.49167554015909</v>
       </c>
       <c r="H73" t="n">
-        <v>7.537750185223906</v>
+        <v>7.537750185224081</v>
       </c>
       <c r="I73" t="n">
         <v>22.46395608561936</v>
@@ -4239,16 +4239,16 @@
         <v>16.27104575612665</v>
       </c>
       <c r="K73" t="n">
-        <v>22.44813938178822</v>
+        <v>22.44813938178835</v>
       </c>
       <c r="L73" t="n">
-        <v>16.1565042495589</v>
+        <v>16.15650424955929</v>
       </c>
       <c r="M73" t="n">
-        <v>0.0099086369732316</v>
+        <v>0.009908636973231242</v>
       </c>
       <c r="N73" t="n">
-        <v>0.05108768408752747</v>
+        <v>0.05108768408740674</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003054999999960728</v>
+        <v>0.000188299999999586</v>
       </c>
     </row>
     <row r="74">
@@ -4276,13 +4276,13 @@
         <v>359.9681454500934</v>
       </c>
       <c r="F74" t="n">
-        <v>9.961824519575957</v>
+        <v>9.961824519575949</v>
       </c>
       <c r="G74" t="n">
-        <v>19.17110760291181</v>
+        <v>19.17110760291171</v>
       </c>
       <c r="H74" t="n">
-        <v>11.26236591699483</v>
+        <v>11.26236591699521</v>
       </c>
       <c r="I74" t="n">
         <v>15.57133329969279</v>
@@ -4291,16 +4291,16 @@
         <v>20.85419847183129</v>
       </c>
       <c r="K74" t="n">
-        <v>15.56834327123025</v>
+        <v>15.56834327123028</v>
       </c>
       <c r="L74" t="n">
-        <v>20.87674156509121</v>
+        <v>20.87674156509166</v>
       </c>
       <c r="M74" t="n">
-        <v>0.01015466195634757</v>
+        <v>0.01015466195634728</v>
       </c>
       <c r="N74" t="n">
-        <v>0.01479873447724995</v>
+        <v>0.0147987344773665</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0002934999999979482</v>
+        <v>0.0002390999999999366</v>
       </c>
     </row>
     <row r="75">
@@ -4328,13 +4328,13 @@
         <v>359.942318694869</v>
       </c>
       <c r="F75" t="n">
-        <v>10.07300913974382</v>
+        <v>10.07300913974501</v>
       </c>
       <c r="G75" t="n">
-        <v>115.6147834737438</v>
+        <v>115.6147834737443</v>
       </c>
       <c r="H75" t="n">
-        <v>9.583032425254196</v>
+        <v>9.583032425255753</v>
       </c>
       <c r="I75" t="n">
         <v>77.81913838663891</v>
@@ -4343,16 +4343,16 @@
         <v>11.66724248977646</v>
       </c>
       <c r="K75" t="n">
-        <v>77.83651656660918</v>
+        <v>77.83651656660949</v>
       </c>
       <c r="L75" t="n">
-        <v>11.79456283040068</v>
+        <v>11.79456283040235</v>
       </c>
       <c r="M75" t="n">
-        <v>0.009327546145423202</v>
+        <v>0.009327546145420076</v>
       </c>
       <c r="N75" t="n">
-        <v>0.05585758812665199</v>
+        <v>0.05585758812737353</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0003078999999956977</v>
+        <v>0.0001883999999989783</v>
       </c>
     </row>
     <row r="76">
@@ -4380,13 +4380,13 @@
         <v>359.9391654506192</v>
       </c>
       <c r="F76" t="n">
-        <v>9.958254926796965</v>
+        <v>9.958254926797888</v>
       </c>
       <c r="G76" t="n">
-        <v>36.33064397095041</v>
+        <v>36.33064397095136</v>
       </c>
       <c r="H76" t="n">
-        <v>12.43105286502071</v>
+        <v>12.43105286502239</v>
       </c>
       <c r="I76" t="n">
         <v>27.32317301036183</v>
@@ -4395,16 +4395,16 @@
         <v>21.80818795837916</v>
       </c>
       <c r="K76" t="n">
-        <v>27.3125982665909</v>
+        <v>27.31259826659124</v>
       </c>
       <c r="L76" t="n">
-        <v>21.78846350567995</v>
+        <v>21.78846350568273</v>
       </c>
       <c r="M76" t="n">
-        <v>0.009352431226519279</v>
+        <v>0.009352431226515389</v>
       </c>
       <c r="N76" t="n">
-        <v>0.009114332830280064</v>
+        <v>0.009114332830297162</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0003026999999917734</v>
+        <v>0.0001905000000004264</v>
       </c>
     </row>
     <row r="77">
@@ -4432,13 +4432,13 @@
         <v>0.07095021339761047</v>
       </c>
       <c r="F77" t="n">
-        <v>9.981254621346078</v>
+        <v>9.981254621345549</v>
       </c>
       <c r="G77" t="n">
-        <v>103.2171690753649</v>
+        <v>103.2171690753648</v>
       </c>
       <c r="H77" t="n">
-        <v>3.740324750850856</v>
+        <v>3.740324750850471</v>
       </c>
       <c r="I77" t="n">
         <v>41.23088095385175</v>
@@ -4447,16 +4447,16 @@
         <v>8.517806771190989</v>
       </c>
       <c r="K77" t="n">
-        <v>41.2165858824662</v>
+        <v>41.21658588246575</v>
       </c>
       <c r="L77" t="n">
-        <v>8.426540110725751</v>
+        <v>8.426540110725147</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01038900128891551</v>
+        <v>0.01038900128891693</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07541943012715895</v>
+        <v>0.0754194301276333</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0002848999999969237</v>
+        <v>0.0001963000000007042</v>
       </c>
     </row>
     <row r="78">
@@ -4484,13 +4484,13 @@
         <v>359.9059698689281</v>
       </c>
       <c r="F78" t="n">
-        <v>9.971058515694331</v>
+        <v>9.971058515694859</v>
       </c>
       <c r="G78" t="n">
-        <v>55.87281242151397</v>
+        <v>55.87281242151467</v>
       </c>
       <c r="H78" t="n">
-        <v>12.88040502507009</v>
+        <v>12.88040502507087</v>
       </c>
       <c r="I78" t="n">
         <v>41.02759868558736</v>
@@ -4499,16 +4499,16 @@
         <v>21.21280471567252</v>
       </c>
       <c r="K78" t="n">
-        <v>41.03553837131044</v>
+        <v>41.03553837131064</v>
       </c>
       <c r="L78" t="n">
-        <v>21.24646745796259</v>
+        <v>21.24646745796383</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01013886818435263</v>
+        <v>0.01013886818435066</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01678657832640256</v>
+        <v>0.01678657832668354</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.000331899999991947</v>
+        <v>0.0001959999999989748</v>
       </c>
     </row>
     <row r="79">
@@ -4536,13 +4536,13 @@
         <v>359.9775555147925</v>
       </c>
       <c r="F79" t="n">
-        <v>9.980599296454713</v>
+        <v>9.980599296453951</v>
       </c>
       <c r="G79" t="n">
-        <v>165.4160760467846</v>
+        <v>165.4160760467852</v>
       </c>
       <c r="H79" t="n">
-        <v>10.68305722607928</v>
+        <v>10.68305722607824</v>
       </c>
       <c r="I79" t="n">
         <v>138.9401716507728</v>
@@ -4551,16 +4551,16 @@
         <v>6.69919649565565</v>
       </c>
       <c r="K79" t="n">
-        <v>138.9273710598503</v>
+        <v>138.9273710598507</v>
       </c>
       <c r="L79" t="n">
-        <v>6.688596109374889</v>
+        <v>6.688596109374297</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01019830731245174</v>
+        <v>0.01019830731245207</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01186447440575949</v>
+        <v>0.01186447440604478</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0003029000000083215</v>
+        <v>0.0002404999999985336</v>
       </c>
     </row>
     <row r="80">
@@ -4588,13 +4588,13 @@
         <v>359.9877953862775</v>
       </c>
       <c r="F80" t="n">
-        <v>10.02171770082033</v>
+        <v>10.02171770082037</v>
       </c>
       <c r="G80" t="n">
-        <v>8.710142723442397</v>
+        <v>8.710142723442409</v>
       </c>
       <c r="H80" t="n">
-        <v>11.09994127268923</v>
+        <v>11.09994127268909</v>
       </c>
       <c r="I80" t="n">
         <v>8.792537788842502</v>
@@ -4606,13 +4606,13 @@
         <v>8.80209808324336</v>
       </c>
       <c r="L80" t="n">
-        <v>20.81683146701299</v>
+        <v>20.81683146701286</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01009350019034831</v>
+        <v>0.0100935001903484</v>
       </c>
       <c r="N80" t="n">
-        <v>0.02452518526659528</v>
+        <v>0.02452518526663757</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0002894999999938364</v>
+        <v>0.0001926000000000982</v>
       </c>
     </row>
     <row r="81">
@@ -4640,13 +4640,13 @@
         <v>0.3316358820770021</v>
       </c>
       <c r="F81" t="n">
-        <v>9.723773058637899</v>
+        <v>9.723773058637125</v>
       </c>
       <c r="G81" t="n">
-        <v>90.52299715956958</v>
+        <v>90.52299715956831</v>
       </c>
       <c r="H81" t="n">
-        <v>8.088737858908521</v>
+        <v>8.088737858907665</v>
       </c>
       <c r="I81" t="n">
         <v>57.39789300421757</v>
@@ -4655,16 +4655,16 @@
         <v>13.66352932901044</v>
       </c>
       <c r="K81" t="n">
-        <v>57.30035681540716</v>
+        <v>57.30035681540677</v>
       </c>
       <c r="L81" t="n">
-        <v>12.9918403520706</v>
+        <v>12.99184035206943</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01893523933701127</v>
+        <v>0.01893523933701009</v>
       </c>
       <c r="N81" t="n">
-        <v>0.2695941354396767</v>
+        <v>0.2695941354401347</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.000507900000002337</v>
+        <v>0.0001871999999991658</v>
       </c>
     </row>
     <row r="82">
@@ -4692,13 +4692,13 @@
         <v>359.8100147063852</v>
       </c>
       <c r="F82" t="n">
-        <v>10.13117125982216</v>
+        <v>10.13117125982169</v>
       </c>
       <c r="G82" t="n">
-        <v>93.85266991969047</v>
+        <v>93.85266991969021</v>
       </c>
       <c r="H82" t="n">
-        <v>11.68724546627861</v>
+        <v>11.68724546627788</v>
       </c>
       <c r="I82" t="n">
         <v>66.48783954982605</v>
@@ -4707,16 +4707,16 @@
         <v>16.15039452812126</v>
       </c>
       <c r="K82" t="n">
-        <v>66.51985261879145</v>
+        <v>66.51985261879135</v>
       </c>
       <c r="L82" t="n">
-        <v>16.49573815376173</v>
+        <v>16.49573815376079</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01206497401598049</v>
+        <v>0.01206497401598328</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1105405327352541</v>
+        <v>0.1105405327349728</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0003054999999960728</v>
+        <v>0.0002036000000007476</v>
       </c>
     </row>
     <row r="83">
@@ -4744,13 +4744,13 @@
         <v>0.1359900342218655</v>
       </c>
       <c r="F83" t="n">
-        <v>9.988360073602664</v>
+        <v>9.98836007360269</v>
       </c>
       <c r="G83" t="n">
-        <v>64.37575803281327</v>
+        <v>64.37575803281329</v>
       </c>
       <c r="H83" t="n">
-        <v>6.936101603393802</v>
+        <v>6.936101603393836</v>
       </c>
       <c r="I83" t="n">
         <v>38.4159118793041</v>
@@ -4759,16 +4759,16 @@
         <v>14.1881020213233</v>
       </c>
       <c r="K83" t="n">
-        <v>38.40946308103324</v>
+        <v>38.40946308103325</v>
       </c>
       <c r="L83" t="n">
-        <v>14.00161033059095</v>
+        <v>14.001610330591</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0110838376207491</v>
+        <v>0.01108383762074902</v>
       </c>
       <c r="N83" t="n">
-        <v>0.08785751872153016</v>
+        <v>0.08785751872151198</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.000289400000013984</v>
+        <v>0.0001978000000004698</v>
       </c>
     </row>
     <row r="84">
@@ -4796,13 +4796,13 @@
         <v>359.9159349597244</v>
       </c>
       <c r="F84" t="n">
-        <v>9.96678402174682</v>
+        <v>9.966784021747937</v>
       </c>
       <c r="G84" t="n">
-        <v>49.39142264730037</v>
+        <v>49.39142264730157</v>
       </c>
       <c r="H84" t="n">
-        <v>10.74531057549107</v>
+        <v>10.74531057549278</v>
       </c>
       <c r="I84" t="n">
         <v>34.81590641774923</v>
@@ -4811,16 +4811,16 @@
         <v>19.11454519061216</v>
       </c>
       <c r="K84" t="n">
-        <v>34.8075857864233</v>
+        <v>34.80758578642373</v>
       </c>
       <c r="L84" t="n">
-        <v>19.1739216429586</v>
+        <v>19.17392164296144</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01115096223502872</v>
+        <v>0.01115096223502417</v>
       </c>
       <c r="N84" t="n">
-        <v>0.02845128873158429</v>
+        <v>0.02845128873208915</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0002915999999970609</v>
+        <v>0.0002317000000005009</v>
       </c>
     </row>
     <row r="85">
@@ -4848,13 +4848,13 @@
         <v>359.9150687113963</v>
       </c>
       <c r="F85" t="n">
-        <v>9.944316614432212</v>
+        <v>9.944316614432882</v>
       </c>
       <c r="G85" t="n">
-        <v>46.12337908683662</v>
+        <v>46.12337908683752</v>
       </c>
       <c r="H85" t="n">
-        <v>11.24213076396093</v>
+        <v>11.24213076396186</v>
       </c>
       <c r="I85" t="n">
         <v>33.13287081288786</v>
@@ -4863,16 +4863,16 @@
         <v>19.91760304290331</v>
       </c>
       <c r="K85" t="n">
-        <v>33.11852069778418</v>
+        <v>33.11852069778443</v>
       </c>
       <c r="L85" t="n">
-        <v>19.91344900857429</v>
+        <v>19.9134490085759</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01049517530518997</v>
+        <v>0.01049517530518729</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01572504032545459</v>
+        <v>0.0157250403254415</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0003108000000082711</v>
+        <v>0.0001914000000002858</v>
       </c>
     </row>
     <row r="86">
@@ -4900,13 +4900,13 @@
         <v>0.01316122019755319</v>
       </c>
       <c r="F86" t="n">
-        <v>9.983683087061724</v>
+        <v>9.983683087061875</v>
       </c>
       <c r="G86" t="n">
-        <v>8.224937229429823</v>
+        <v>8.224937229430077</v>
       </c>
       <c r="H86" t="n">
-        <v>7.466001166408849</v>
+        <v>7.466001166408812</v>
       </c>
       <c r="I86" t="n">
         <v>8.615529210004841</v>
@@ -4915,16 +4915,16 @@
         <v>16.40699998673912</v>
       </c>
       <c r="K86" t="n">
-        <v>8.597346276947691</v>
+        <v>8.597346276947754</v>
       </c>
       <c r="L86" t="n">
-        <v>16.41886166255486</v>
+        <v>16.41886166255496</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01121856323059249</v>
+        <v>0.0112185632305923</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01506855276949168</v>
+        <v>0.01506855276946967</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0002922000000040725</v>
+        <v>0.0001883999999989783</v>
       </c>
     </row>
     <row r="87">
@@ -4952,13 +4952,13 @@
         <v>359.9823149278921</v>
       </c>
       <c r="F87" t="n">
-        <v>9.99150463467012</v>
+        <v>9.991504634672513</v>
       </c>
       <c r="G87" t="n">
-        <v>111.6005619630685</v>
+        <v>111.6005619630701</v>
       </c>
       <c r="H87" t="n">
-        <v>9.10766781503504</v>
+        <v>9.107667815038043</v>
       </c>
       <c r="I87" t="n">
         <v>73.53144854422638</v>
@@ -4967,16 +4967,16 @@
         <v>11.81175051977503</v>
       </c>
       <c r="K87" t="n">
-        <v>73.51897824731626</v>
+        <v>73.51897824731705</v>
       </c>
       <c r="L87" t="n">
-        <v>11.81445677954833</v>
+        <v>11.81445677955166</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01029918875357286</v>
+        <v>0.01029918875356684</v>
       </c>
       <c r="N87" t="n">
-        <v>0.005230957789913556</v>
+        <v>0.005230957790969789</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0002843999999981861</v>
+        <v>0.0001968999999988341</v>
       </c>
     </row>
     <row r="88">
@@ -5004,13 +5004,13 @@
         <v>0.05962857189673432</v>
       </c>
       <c r="F88" t="n">
-        <v>10.00494061866022</v>
+        <v>10.00494061866021</v>
       </c>
       <c r="G88" t="n">
         <v>36.69865845966984</v>
       </c>
       <c r="H88" t="n">
-        <v>5.365228361158463</v>
+        <v>5.365228361158456</v>
       </c>
       <c r="I88" t="n">
         <v>21.84848718910419</v>
@@ -5019,16 +5019,16 @@
         <v>13.65786460130007</v>
       </c>
       <c r="K88" t="n">
-        <v>21.83341497667584</v>
+        <v>21.83341497667583</v>
       </c>
       <c r="L88" t="n">
-        <v>13.52055594926901</v>
+        <v>13.520555949269</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01046881707377634</v>
+        <v>0.01046881707377637</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08090178230280576</v>
+        <v>0.0809017823028098</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0003200000000020964</v>
+        <v>0.000192000000000192</v>
       </c>
     </row>
     <row r="89">
@@ -5056,13 +5056,13 @@
         <v>359.9627624479147</v>
       </c>
       <c r="F89" t="n">
-        <v>9.872036553326128</v>
+        <v>9.872036553329169</v>
       </c>
       <c r="G89" t="n">
-        <v>118.0495111531864</v>
+        <v>118.0495111531876</v>
       </c>
       <c r="H89" t="n">
-        <v>14.24081101609528</v>
+        <v>14.24081101610074</v>
       </c>
       <c r="I89" t="n">
         <v>92.7668218217183</v>
@@ -5071,16 +5071,16 @@
         <v>16.49115940110462</v>
       </c>
       <c r="K89" t="n">
-        <v>92.74933290045624</v>
+        <v>92.74933290045654</v>
       </c>
       <c r="L89" t="n">
-        <v>16.2644888506995</v>
+        <v>16.26448885070513</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01058306268447411</v>
+        <v>0.01058306268446375</v>
       </c>
       <c r="N89" t="n">
-        <v>0.06692579131852139</v>
+        <v>0.06692579131690694</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0002862000000050102</v>
+        <v>0.0002348000000012007</v>
       </c>
     </row>
     <row r="90">
@@ -5108,13 +5108,13 @@
         <v>359.9893115695848</v>
       </c>
       <c r="F90" t="n">
-        <v>10.01468158365337</v>
+        <v>10.01468158364678</v>
       </c>
       <c r="G90" t="n">
-        <v>116.5349211002543</v>
+        <v>116.5349211002511</v>
       </c>
       <c r="H90" t="n">
-        <v>9.107855631500771</v>
+        <v>9.107855631492461</v>
       </c>
       <c r="I90" t="n">
         <v>77.06502614626034</v>
@@ -5123,16 +5123,16 @@
         <v>11.20723949811577</v>
       </c>
       <c r="K90" t="n">
-        <v>77.05755676426944</v>
+        <v>77.05755676426742</v>
       </c>
       <c r="L90" t="n">
-        <v>11.2320761256254</v>
+        <v>11.23207612561661</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01001383346476926</v>
+        <v>0.01001383346478282</v>
       </c>
       <c r="N90" t="n">
-        <v>0.01223732060110355</v>
+        <v>0.01223732059808798</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0002791000000001986</v>
+        <v>0.0001955999999996294</v>
       </c>
     </row>
     <row r="91">
@@ -5160,13 +5160,13 @@
         <v>0.169373002654711</v>
       </c>
       <c r="F91" t="n">
-        <v>9.902278405341269</v>
+        <v>9.902278405341958</v>
       </c>
       <c r="G91" t="n">
-        <v>90.51831618770191</v>
+        <v>90.5183161877045</v>
       </c>
       <c r="H91" t="n">
-        <v>5.872923109340588</v>
+        <v>5.872923109341073</v>
       </c>
       <c r="I91" t="n">
         <v>48.84601329812367</v>
@@ -5175,16 +5175,16 @@
         <v>11.23051578470421</v>
       </c>
       <c r="K91" t="n">
-        <v>48.79030916021669</v>
+        <v>48.79030916021725</v>
       </c>
       <c r="L91" t="n">
-        <v>10.96225909598884</v>
+        <v>10.96225909598952</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01220255719798843</v>
+        <v>0.01220255719798771</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1497348458409921</v>
+        <v>0.1497348458406211</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0002830000000102473</v>
+        <v>0.0001923000000001451</v>
       </c>
     </row>
     <row r="92">
@@ -5212,13 +5212,13 @@
         <v>0.0224486668199389</v>
       </c>
       <c r="F92" t="n">
-        <v>9.973619734318703</v>
+        <v>9.9736197343189</v>
       </c>
       <c r="G92" t="n">
-        <v>27.45397290139014</v>
+        <v>27.45397290139061</v>
       </c>
       <c r="H92" t="n">
-        <v>4.847291334040757</v>
+        <v>4.847291334040992</v>
       </c>
       <c r="I92" t="n">
         <v>17.15395993153109</v>
@@ -5227,16 +5227,16 @@
         <v>13.17470023696191</v>
       </c>
       <c r="K92" t="n">
-        <v>17.11992382860624</v>
+        <v>17.11992382860642</v>
       </c>
       <c r="L92" t="n">
-        <v>13.09935552913636</v>
+        <v>13.09935552913682</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01082036772996104</v>
+        <v>0.01082036772996056</v>
       </c>
       <c r="N92" t="n">
-        <v>0.04339834545490956</v>
+        <v>0.0433983454546773</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0003132999999877484</v>
+        <v>0.000192000000000192</v>
       </c>
     </row>
     <row r="93">
@@ -5264,13 +5264,13 @@
         <v>0.06061210177347404</v>
       </c>
       <c r="F93" t="n">
-        <v>9.984029867891552</v>
+        <v>9.984029867891179</v>
       </c>
       <c r="G93" t="n">
-        <v>36.2743306083725</v>
+        <v>36.27433060837146</v>
       </c>
       <c r="H93" t="n">
-        <v>6.817812167984005</v>
+        <v>6.817812167983776</v>
       </c>
       <c r="I93" t="n">
         <v>23.34892049549794</v>
@@ -5279,16 +5279,16 @@
         <v>15.37253312835461</v>
       </c>
       <c r="K93" t="n">
-        <v>23.32747395622147</v>
+        <v>23.32747395622125</v>
       </c>
       <c r="L93" t="n">
-        <v>15.20645989820228</v>
+        <v>15.2064598982017</v>
       </c>
       <c r="M93" t="n">
-        <v>0.009863439280800414</v>
+        <v>0.009863439280800589</v>
       </c>
       <c r="N93" t="n">
-        <v>0.0726394712748604</v>
+        <v>0.07263947127503581</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0002889000000010356</v>
+        <v>0.0001900999999993047</v>
       </c>
     </row>
     <row r="94">
@@ -5316,13 +5316,13 @@
         <v>359.9769700758218</v>
       </c>
       <c r="F94" t="n">
-        <v>10.00952197786583</v>
+        <v>10.00952197786992</v>
       </c>
       <c r="G94" t="n">
-        <v>159.4358948286163</v>
+        <v>159.4358948286146</v>
       </c>
       <c r="H94" t="n">
-        <v>12.48047354262421</v>
+        <v>12.48047354263055</v>
       </c>
       <c r="I94" t="n">
         <v>135.8914103371119</v>
@@ -5331,16 +5331,16 @@
         <v>9.221215218233809</v>
       </c>
       <c r="K94" t="n">
-        <v>135.8867045028612</v>
+        <v>135.8867045028599</v>
       </c>
       <c r="L94" t="n">
-        <v>9.233181534798872</v>
+        <v>9.233181534803089</v>
       </c>
       <c r="M94" t="n">
-        <v>0.009193322740090716</v>
+        <v>0.009193322740084582</v>
       </c>
       <c r="N94" t="n">
-        <v>0.007413500612255119</v>
+        <v>0.007413500614674526</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0002857000000062726</v>
+        <v>0.0002382000000000772</v>
       </c>
     </row>
     <row r="95">
@@ -5368,13 +5368,13 @@
         <v>359.8369801919656</v>
       </c>
       <c r="F95" t="n">
-        <v>10.13906644209622</v>
+        <v>10.13906644210205</v>
       </c>
       <c r="G95" t="n">
-        <v>108.9812472727286</v>
+        <v>108.9812472727322</v>
       </c>
       <c r="H95" t="n">
-        <v>11.1680369744785</v>
+        <v>11.16803697448689</v>
       </c>
       <c r="I95" t="n">
         <v>77.08991880558148</v>
@@ -5383,16 +5383,16 @@
         <v>13.86645042167153</v>
       </c>
       <c r="K95" t="n">
-        <v>77.10114095120477</v>
+        <v>77.10114095120619</v>
       </c>
       <c r="L95" t="n">
-        <v>14.17216271936223</v>
+        <v>14.17216271937161</v>
       </c>
       <c r="M95" t="n">
-        <v>0.01088167388692902</v>
+        <v>0.01088167388690269</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1074095379634018</v>
+        <v>0.1074095379667189</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0003184999999916727</v>
+        <v>0.0001950000000014995</v>
       </c>
     </row>
     <row r="96">
@@ -5420,13 +5420,13 @@
         <v>359.9256546784487</v>
       </c>
       <c r="F96" t="n">
-        <v>10.08736914175242</v>
+        <v>10.08736914175631</v>
       </c>
       <c r="G96" t="n">
-        <v>129.3574024222536</v>
+        <v>129.3574024222543</v>
       </c>
       <c r="H96" t="n">
-        <v>10.43379594871542</v>
+        <v>10.4337959487208</v>
       </c>
       <c r="I96" t="n">
         <v>92.4963307677606</v>
@@ -5435,16 +5435,16 @@
         <v>10.70698393477249</v>
       </c>
       <c r="K96" t="n">
-        <v>92.47769900005999</v>
+        <v>92.4776990000606</v>
       </c>
       <c r="L96" t="n">
-        <v>10.848466175097</v>
+        <v>10.8484661751019</v>
       </c>
       <c r="M96" t="n">
-        <v>0.01046413026309333</v>
+        <v>0.01046413026308324</v>
       </c>
       <c r="N96" t="n">
-        <v>0.06574265135656818</v>
+        <v>0.06574265135847203</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0002824000000032356</v>
+        <v>0.0002159000000006017</v>
       </c>
     </row>
     <row r="97">
@@ -5472,13 +5472,13 @@
         <v>0.06642888995524825</v>
       </c>
       <c r="F97" t="n">
-        <v>10.00225688781728</v>
+        <v>10.00225688781771</v>
       </c>
       <c r="G97" t="n">
-        <v>41.37445898444124</v>
+        <v>41.37445898444259</v>
       </c>
       <c r="H97" t="n">
-        <v>5.190982799319696</v>
+        <v>5.190982799319972</v>
       </c>
       <c r="I97" t="n">
         <v>23.74542453059524</v>
@@ -5487,16 +5487,16 @@
         <v>13.28409758323217</v>
       </c>
       <c r="K97" t="n">
-        <v>23.72109237536576</v>
+        <v>23.72109237536606</v>
       </c>
       <c r="L97" t="n">
-        <v>13.17324754695443</v>
+        <v>13.17324754695509</v>
       </c>
       <c r="M97" t="n">
-        <v>0.009877909468720351</v>
+        <v>0.00987790946872005</v>
       </c>
       <c r="N97" t="n">
-        <v>0.0707220161455123</v>
+        <v>0.07072201614526095</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0002992000000006101</v>
+        <v>0.0002056000000010272</v>
       </c>
     </row>
     <row r="98">
@@ -5524,13 +5524,13 @@
         <v>359.9930152225234</v>
       </c>
       <c r="F98" t="n">
-        <v>9.960954968936203</v>
+        <v>9.960954968936541</v>
       </c>
       <c r="G98" t="n">
-        <v>38.60741169401361</v>
+        <v>38.60741169401403</v>
       </c>
       <c r="H98" t="n">
-        <v>13.8474099343787</v>
+        <v>13.84740993437922</v>
       </c>
       <c r="I98" t="n">
         <v>29.58813609103335</v>
@@ -5539,16 +5539,16 @@
         <v>23.48744640074011</v>
       </c>
       <c r="K98" t="n">
-        <v>29.57652851451919</v>
+        <v>29.57652851451931</v>
       </c>
       <c r="L98" t="n">
-        <v>23.37559834844611</v>
+        <v>23.375598348447</v>
       </c>
       <c r="M98" t="n">
-        <v>0.00980462509421324</v>
+        <v>0.009804625094212416</v>
       </c>
       <c r="N98" t="n">
-        <v>0.02371399632283709</v>
+        <v>0.02371399632264153</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.001114999999998645</v>
+        <v>0.0003228999999986826</v>
       </c>
     </row>
     <row r="99">
@@ -5576,13 +5576,13 @@
         <v>0.1751187751292006</v>
       </c>
       <c r="F99" t="n">
-        <v>9.957807836735361</v>
+        <v>9.957807836742958</v>
       </c>
       <c r="G99" t="n">
-        <v>150.8166088592129</v>
+        <v>150.8166088592113</v>
       </c>
       <c r="H99" t="n">
-        <v>14.53038867084509</v>
+        <v>14.53038867085856</v>
       </c>
       <c r="I99" t="n">
         <v>129.036147186146</v>
@@ -5591,16 +5591,16 @@
         <v>12.59476915243944</v>
       </c>
       <c r="K99" t="n">
-        <v>129.0868685856547</v>
+        <v>129.0868685856531</v>
       </c>
       <c r="L99" t="n">
-        <v>12.50082270461766</v>
+        <v>12.50082270462806</v>
       </c>
       <c r="M99" t="n">
-        <v>0.01726884857786959</v>
+        <v>0.01726884857785942</v>
       </c>
       <c r="N99" t="n">
-        <v>0.04847632557142452</v>
+        <v>0.04847632556730472</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0002972000000056596</v>
+        <v>0.0002068000000008396</v>
       </c>
     </row>
     <row r="100">
@@ -5628,13 +5628,13 @@
         <v>359.9526282918734</v>
       </c>
       <c r="F100" t="n">
-        <v>10.036465909593</v>
+        <v>10.03646590961175</v>
       </c>
       <c r="G100" t="n">
-        <v>131.7206834428362</v>
+        <v>131.7206834428379</v>
       </c>
       <c r="H100" t="n">
-        <v>9.869887658606329</v>
+        <v>9.869887658631443</v>
       </c>
       <c r="I100" t="n">
         <v>92.65513206400841</v>
@@ -5643,16 +5643,16 @@
         <v>9.952434050938109</v>
       </c>
       <c r="K100" t="n">
-        <v>92.64449735706376</v>
+        <v>92.64449735706687</v>
       </c>
       <c r="L100" t="n">
-        <v>10.01305677183648</v>
+        <v>10.01305677185878</v>
       </c>
       <c r="M100" t="n">
-        <v>0.01141835146424609</v>
+        <v>0.01141835146419237</v>
       </c>
       <c r="N100" t="n">
-        <v>0.03121536665268559</v>
+        <v>0.03121536666200564</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.000282699999999636</v>
+        <v>0.0001928000000006591</v>
       </c>
     </row>
     <row r="101">
@@ -5680,13 +5680,13 @@
         <v>0.0142358842701934</v>
       </c>
       <c r="F101" t="n">
-        <v>9.934544564327689</v>
+        <v>9.93454456432225</v>
       </c>
       <c r="G101" t="n">
-        <v>121.0336968565376</v>
+        <v>121.0336968565356</v>
       </c>
       <c r="H101" t="n">
-        <v>8.768141499585404</v>
+        <v>8.768141499578654</v>
       </c>
       <c r="I101" t="n">
         <v>79.48494662297404</v>
@@ -5695,16 +5695,16 @@
         <v>10.4553174329922</v>
       </c>
       <c r="K101" t="n">
-        <v>79.47058128117544</v>
+        <v>79.47058128117375</v>
       </c>
       <c r="L101" t="n">
-        <v>10.36315387776835</v>
+        <v>10.36315387776154</v>
       </c>
       <c r="M101" t="n">
-        <v>0.009809411656235825</v>
+        <v>0.00980941165624598</v>
       </c>
       <c r="N101" t="n">
-        <v>0.04393678678155262</v>
+        <v>0.04393678678491209</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0002845000000064601</v>
+        <v>0.0001895000000011748</v>
       </c>
     </row>
   </sheetData>
